--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SCIXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>329800</v>
+        <v>337200</v>
       </c>
       <c r="E8" s="3">
-        <v>311800</v>
+        <v>322100</v>
       </c>
       <c r="F8" s="3">
-        <v>263600</v>
+        <v>304500</v>
       </c>
       <c r="G8" s="3">
-        <v>225300</v>
+        <v>257400</v>
       </c>
       <c r="H8" s="3">
-        <v>233500</v>
+        <v>220000</v>
       </c>
       <c r="I8" s="3">
-        <v>355200</v>
+        <v>228000</v>
       </c>
       <c r="J8" s="3">
+        <v>346800</v>
+      </c>
+      <c r="K8" s="3">
         <v>302900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2134400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>287100</v>
+        <v>299900</v>
       </c>
       <c r="E9" s="3">
-        <v>265000</v>
+        <v>280400</v>
       </c>
       <c r="F9" s="3">
-        <v>236700</v>
+        <v>258800</v>
       </c>
       <c r="G9" s="3">
-        <v>208600</v>
+        <v>231100</v>
       </c>
       <c r="H9" s="3">
-        <v>422900</v>
+        <v>203700</v>
       </c>
       <c r="I9" s="3">
-        <v>631000</v>
+        <v>412900</v>
       </c>
       <c r="J9" s="3">
+        <v>616100</v>
+      </c>
+      <c r="K9" s="3">
         <v>495000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1707800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42700</v>
+        <v>37300</v>
       </c>
       <c r="E10" s="3">
-        <v>46800</v>
+        <v>41700</v>
       </c>
       <c r="F10" s="3">
-        <v>26900</v>
+        <v>45700</v>
       </c>
       <c r="G10" s="3">
-        <v>16700</v>
+        <v>26300</v>
       </c>
       <c r="H10" s="3">
-        <v>-189400</v>
+        <v>16300</v>
       </c>
       <c r="I10" s="3">
-        <v>-275800</v>
+        <v>-185000</v>
       </c>
       <c r="J10" s="3">
+        <v>-269300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-192000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>426500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,57 +902,63 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>329100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>305500</v>
+        <v>319200</v>
       </c>
       <c r="E17" s="3">
-        <v>285000</v>
+        <v>298300</v>
       </c>
       <c r="F17" s="3">
-        <v>252900</v>
+        <v>278300</v>
       </c>
       <c r="G17" s="3">
-        <v>223700</v>
+        <v>246900</v>
       </c>
       <c r="H17" s="3">
-        <v>228300</v>
+        <v>218400</v>
       </c>
       <c r="I17" s="3">
-        <v>317800</v>
+        <v>223000</v>
       </c>
       <c r="J17" s="3">
+        <v>310400</v>
+      </c>
+      <c r="K17" s="3">
         <v>273700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2274500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24300</v>
+        <v>18000</v>
       </c>
       <c r="E18" s="3">
-        <v>26800</v>
+        <v>23700</v>
       </c>
       <c r="F18" s="3">
-        <v>10700</v>
+        <v>26200</v>
       </c>
       <c r="G18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
-        <v>5100</v>
-      </c>
       <c r="I18" s="3">
-        <v>37400</v>
+        <v>5000</v>
       </c>
       <c r="J18" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K18" s="3">
         <v>29200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-140200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
-        <v>-5900</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>-5800</v>
       </c>
       <c r="G20" s="3">
-        <v>139100</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>7400</v>
+        <v>135800</v>
       </c>
       <c r="I20" s="3">
-        <v>-4400</v>
+        <v>7300</v>
       </c>
       <c r="J20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-142900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>34300</v>
+        <v>17400</v>
       </c>
       <c r="E21" s="3">
-        <v>23700</v>
+        <v>33600</v>
       </c>
       <c r="F21" s="3">
-        <v>13800</v>
+        <v>23200</v>
       </c>
       <c r="G21" s="3">
-        <v>144000</v>
+        <v>13500</v>
       </c>
       <c r="H21" s="3">
-        <v>14900</v>
+        <v>140600</v>
       </c>
       <c r="I21" s="3">
-        <v>37000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>98800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1086,89 +1125,98 @@
         <v>5000</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="3">
-        <v>6100</v>
+        <v>4800</v>
       </c>
       <c r="H22" s="3">
-        <v>24200</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="3">
-        <v>26000</v>
+        <v>23600</v>
       </c>
       <c r="J22" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K22" s="3">
         <v>33600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24700</v>
+        <v>8000</v>
       </c>
       <c r="E23" s="3">
-        <v>15900</v>
+        <v>24200</v>
       </c>
       <c r="F23" s="3">
-        <v>6000</v>
+        <v>15500</v>
       </c>
       <c r="G23" s="3">
-        <v>134600</v>
+        <v>5900</v>
       </c>
       <c r="H23" s="3">
-        <v>-11600</v>
+        <v>131400</v>
       </c>
       <c r="I23" s="3">
-        <v>7000</v>
+        <v>-11400</v>
       </c>
       <c r="J23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-283100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G24" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>12500</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="3">
-        <v>24500</v>
+        <v>12200</v>
       </c>
       <c r="J24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K24" s="3">
         <v>9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19000</v>
+        <v>5300</v>
       </c>
       <c r="E26" s="3">
-        <v>12200</v>
+        <v>18600</v>
       </c>
       <c r="F26" s="3">
-        <v>6000</v>
+        <v>11900</v>
       </c>
       <c r="G26" s="3">
-        <v>133400</v>
+        <v>5900</v>
       </c>
       <c r="H26" s="3">
-        <v>-24200</v>
+        <v>130300</v>
       </c>
       <c r="I26" s="3">
-        <v>-17500</v>
+        <v>-23600</v>
       </c>
       <c r="J26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-334900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19000</v>
+        <v>5300</v>
       </c>
       <c r="E27" s="3">
-        <v>12200</v>
+        <v>18600</v>
       </c>
       <c r="F27" s="3">
-        <v>6000</v>
+        <v>11900</v>
       </c>
       <c r="G27" s="3">
-        <v>133400</v>
+        <v>5900</v>
       </c>
       <c r="H27" s="3">
-        <v>-24100</v>
+        <v>130300</v>
       </c>
       <c r="I27" s="3">
-        <v>32100</v>
+        <v>-23600</v>
       </c>
       <c r="J27" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K27" s="3">
         <v>567000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-149000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,24 +1361,27 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-74400</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-815400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
-        <v>5900</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>5800</v>
       </c>
       <c r="G32" s="3">
-        <v>-139100</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>-7400</v>
+        <v>-135800</v>
       </c>
       <c r="I32" s="3">
-        <v>4400</v>
+        <v>-7300</v>
       </c>
       <c r="J32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>142900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19000</v>
+        <v>5300</v>
       </c>
       <c r="E33" s="3">
-        <v>12200</v>
+        <v>18600</v>
       </c>
       <c r="F33" s="3">
-        <v>6000</v>
+        <v>11900</v>
       </c>
       <c r="G33" s="3">
-        <v>133400</v>
+        <v>5900</v>
       </c>
       <c r="H33" s="3">
-        <v>-24100</v>
+        <v>130300</v>
       </c>
       <c r="I33" s="3">
-        <v>-42300</v>
+        <v>-23600</v>
       </c>
       <c r="J33" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-248400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-149000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19000</v>
+        <v>5300</v>
       </c>
       <c r="E35" s="3">
-        <v>12200</v>
+        <v>18600</v>
       </c>
       <c r="F35" s="3">
-        <v>6000</v>
+        <v>11900</v>
       </c>
       <c r="G35" s="3">
-        <v>133400</v>
+        <v>5900</v>
       </c>
       <c r="H35" s="3">
-        <v>-24100</v>
+        <v>130300</v>
       </c>
       <c r="I35" s="3">
-        <v>-42300</v>
+        <v>-23600</v>
       </c>
       <c r="J35" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-248400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-149000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21700</v>
+        <v>17800</v>
       </c>
       <c r="E41" s="3">
-        <v>24400</v>
+        <v>21200</v>
       </c>
       <c r="F41" s="3">
-        <v>10000</v>
+        <v>23900</v>
       </c>
       <c r="G41" s="3">
-        <v>7100</v>
+        <v>9800</v>
       </c>
       <c r="H41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>294100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1601,237 +1690,261 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
-        <v>98100</v>
-      </c>
       <c r="I42" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+        <v>95800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>37500</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37200</v>
+        <v>43800</v>
       </c>
       <c r="E43" s="3">
-        <v>29300</v>
+        <v>36300</v>
       </c>
       <c r="F43" s="3">
-        <v>35000</v>
+        <v>28600</v>
       </c>
       <c r="G43" s="3">
-        <v>35600</v>
+        <v>34200</v>
       </c>
       <c r="H43" s="3">
-        <v>23100</v>
+        <v>34800</v>
       </c>
       <c r="I43" s="3">
-        <v>35000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>477600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40600</v>
+        <v>39500</v>
       </c>
       <c r="E44" s="3">
-        <v>27800</v>
+        <v>39600</v>
       </c>
       <c r="F44" s="3">
-        <v>17700</v>
+        <v>27100</v>
       </c>
       <c r="G44" s="3">
-        <v>38400</v>
+        <v>17300</v>
       </c>
       <c r="H44" s="3">
-        <v>19600</v>
+        <v>37600</v>
       </c>
       <c r="I44" s="3">
-        <v>38500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>59300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17700</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>23600</v>
+        <v>17300</v>
       </c>
       <c r="F45" s="3">
-        <v>11800</v>
+        <v>23100</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>11500</v>
       </c>
       <c r="H45" s="3">
-        <v>5000</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>37600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117200</v>
+        <v>115300</v>
       </c>
       <c r="E46" s="3">
-        <v>105100</v>
+        <v>114500</v>
       </c>
       <c r="F46" s="3">
-        <v>74400</v>
+        <v>102700</v>
       </c>
       <c r="G46" s="3">
-        <v>91800</v>
+        <v>72700</v>
       </c>
       <c r="H46" s="3">
-        <v>146200</v>
+        <v>89700</v>
       </c>
       <c r="I46" s="3">
-        <v>112700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3">
+        <v>142900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>110100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>873800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
-        <v>111500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>236400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11900</v>
+        <v>9800</v>
       </c>
       <c r="E48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5000</v>
-      </c>
       <c r="I48" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>566100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4600</v>
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>6800</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>9100</v>
+        <v>6700</v>
       </c>
       <c r="G49" s="3">
-        <v>11300</v>
+        <v>8800</v>
       </c>
       <c r="H49" s="3">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="I49" s="3">
-        <v>16100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>2394500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,9 +2005,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1904,24 +2023,27 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>13700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>77300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>134000</v>
+        <v>128100</v>
       </c>
       <c r="E54" s="3">
-        <v>117300</v>
+        <v>130900</v>
       </c>
       <c r="F54" s="3">
-        <v>90600</v>
+        <v>114600</v>
       </c>
       <c r="G54" s="3">
-        <v>110400</v>
+        <v>88500</v>
       </c>
       <c r="H54" s="3">
-        <v>166300</v>
+        <v>107900</v>
       </c>
       <c r="I54" s="3">
-        <v>258600</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3">
+        <v>162500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>252600</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>4148200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11300</v>
+        <v>9800</v>
       </c>
       <c r="E57" s="3">
-        <v>5900</v>
+        <v>11100</v>
       </c>
       <c r="F57" s="3">
-        <v>37400</v>
+        <v>5700</v>
       </c>
       <c r="G57" s="3">
-        <v>58400</v>
+        <v>36500</v>
       </c>
       <c r="H57" s="3">
-        <v>10500</v>
+        <v>57000</v>
       </c>
       <c r="I57" s="3">
-        <v>78200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>315600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>23900</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>2900</v>
+        <v>23300</v>
       </c>
       <c r="G58" s="3">
         <v>2900</v>
       </c>
       <c r="H58" s="3">
-        <v>279000</v>
+        <v>2900</v>
       </c>
       <c r="I58" s="3">
-        <v>91900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+        <v>272600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>339900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12700</v>
+        <v>8200</v>
       </c>
       <c r="E59" s="3">
-        <v>5200</v>
+        <v>12400</v>
       </c>
       <c r="F59" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="G59" s="3">
-        <v>6600</v>
+        <v>4500</v>
       </c>
       <c r="H59" s="3">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="I59" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>102900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28400</v>
+        <v>22300</v>
       </c>
       <c r="E60" s="3">
-        <v>35000</v>
+        <v>27800</v>
       </c>
       <c r="F60" s="3">
-        <v>44900</v>
+        <v>34200</v>
       </c>
       <c r="G60" s="3">
-        <v>67900</v>
+        <v>43800</v>
       </c>
       <c r="H60" s="3">
-        <v>298000</v>
+        <v>66400</v>
       </c>
       <c r="I60" s="3">
-        <v>184400</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
+        <v>291100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>180200</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>758400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39400</v>
+        <v>36300</v>
       </c>
       <c r="E61" s="3">
-        <v>35400</v>
+        <v>38500</v>
       </c>
       <c r="F61" s="3">
-        <v>35000</v>
+        <v>34600</v>
       </c>
       <c r="G61" s="3">
-        <v>35200</v>
+        <v>34200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>34400</v>
       </c>
       <c r="I61" s="3">
-        <v>187400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>183100</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1945400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
-        <v>9000</v>
-      </c>
       <c r="H62" s="3">
-        <v>12300</v>
+        <v>8800</v>
       </c>
       <c r="I62" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>170800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>68900</v>
+        <v>59400</v>
       </c>
       <c r="E66" s="3">
-        <v>71400</v>
+        <v>67300</v>
       </c>
       <c r="F66" s="3">
-        <v>83000</v>
+        <v>69700</v>
       </c>
       <c r="G66" s="3">
-        <v>112500</v>
+        <v>81100</v>
       </c>
       <c r="H66" s="3">
-        <v>310500</v>
+        <v>109900</v>
       </c>
       <c r="I66" s="3">
-        <v>386100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3">
+        <v>303400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>377200</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>3987900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>244600</v>
+        <v>244100</v>
       </c>
       <c r="E72" s="3">
-        <v>225700</v>
+        <v>239000</v>
       </c>
       <c r="F72" s="3">
-        <v>209800</v>
+        <v>220500</v>
       </c>
       <c r="G72" s="3">
-        <v>203600</v>
+        <v>205000</v>
       </c>
       <c r="H72" s="3">
-        <v>69700</v>
+        <v>199000</v>
       </c>
       <c r="I72" s="3">
-        <v>89900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+        <v>68100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>361200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65100</v>
+        <v>68700</v>
       </c>
       <c r="E76" s="3">
-        <v>45900</v>
+        <v>63600</v>
       </c>
       <c r="F76" s="3">
-        <v>7600</v>
+        <v>44800</v>
       </c>
       <c r="G76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
-        <v>-144200</v>
-      </c>
       <c r="I76" s="3">
-        <v>-127500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3">
+        <v>-140900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>160300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19000</v>
+        <v>5300</v>
       </c>
       <c r="E81" s="3">
-        <v>12200</v>
+        <v>18600</v>
       </c>
       <c r="F81" s="3">
-        <v>6000</v>
+        <v>11900</v>
       </c>
       <c r="G81" s="3">
-        <v>133400</v>
+        <v>5900</v>
       </c>
       <c r="H81" s="3">
-        <v>-24100</v>
+        <v>130300</v>
       </c>
       <c r="I81" s="3">
-        <v>-42300</v>
+        <v>-23600</v>
       </c>
       <c r="J81" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-248400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-149000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="F83" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="H83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>382700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20200</v>
+        <v>3100</v>
       </c>
       <c r="E89" s="3">
-        <v>-33700</v>
+        <v>19800</v>
       </c>
       <c r="F89" s="3">
-        <v>8400</v>
+        <v>-32900</v>
       </c>
       <c r="G89" s="3">
-        <v>14200</v>
+        <v>8200</v>
       </c>
       <c r="H89" s="3">
-        <v>-37400</v>
+        <v>13900</v>
       </c>
       <c r="I89" s="3">
-        <v>85200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>484200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1300</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-96300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>3300</v>
       </c>
-      <c r="E94" s="3">
-        <v>6200</v>
-      </c>
       <c r="F94" s="3">
-        <v>-1400</v>
+        <v>6100</v>
       </c>
       <c r="G94" s="3">
-        <v>-6400</v>
+        <v>-1300</v>
       </c>
       <c r="H94" s="3">
-        <v>57800</v>
+        <v>-6300</v>
       </c>
       <c r="I94" s="3">
-        <v>61600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-312300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3086,11 +3319,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-27600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-26800</v>
+        <v>-7700</v>
       </c>
       <c r="E100" s="3">
-        <v>42700</v>
+        <v>-26200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4200</v>
+        <v>41700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1200</v>
+        <v>-4100</v>
       </c>
       <c r="H100" s="3">
-        <v>-20400</v>
+        <v>-1100</v>
       </c>
       <c r="I100" s="3">
-        <v>-159100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-155300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-27300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>600</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
-        <v>14400</v>
+        <v>-2600</v>
       </c>
       <c r="F102" s="3">
-        <v>2900</v>
+        <v>14100</v>
       </c>
       <c r="G102" s="3">
-        <v>6600</v>
+        <v>2800</v>
       </c>
       <c r="H102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="J102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>142600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>337200</v>
+        <v>348100</v>
       </c>
       <c r="E8" s="3">
-        <v>322100</v>
+        <v>332500</v>
       </c>
       <c r="F8" s="3">
-        <v>304500</v>
+        <v>314400</v>
       </c>
       <c r="G8" s="3">
-        <v>257400</v>
+        <v>265800</v>
       </c>
       <c r="H8" s="3">
-        <v>220000</v>
+        <v>227100</v>
       </c>
       <c r="I8" s="3">
-        <v>228000</v>
+        <v>235400</v>
       </c>
       <c r="J8" s="3">
-        <v>346800</v>
+        <v>358100</v>
       </c>
       <c r="K8" s="3">
         <v>302900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>299900</v>
+        <v>309600</v>
       </c>
       <c r="E9" s="3">
-        <v>280400</v>
+        <v>289400</v>
       </c>
       <c r="F9" s="3">
-        <v>258800</v>
+        <v>267200</v>
       </c>
       <c r="G9" s="3">
-        <v>231100</v>
+        <v>238600</v>
       </c>
       <c r="H9" s="3">
-        <v>203700</v>
+        <v>210300</v>
       </c>
       <c r="I9" s="3">
-        <v>412900</v>
+        <v>426300</v>
       </c>
       <c r="J9" s="3">
-        <v>616100</v>
+        <v>636100</v>
       </c>
       <c r="K9" s="3">
         <v>495000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37300</v>
+        <v>38500</v>
       </c>
       <c r="E10" s="3">
-        <v>41700</v>
+        <v>43000</v>
       </c>
       <c r="F10" s="3">
-        <v>45700</v>
+        <v>47200</v>
       </c>
       <c r="G10" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="H10" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="I10" s="3">
-        <v>-185000</v>
+        <v>-190900</v>
       </c>
       <c r="J10" s="3">
-        <v>-269300</v>
+        <v>-278000</v>
       </c>
       <c r="K10" s="3">
         <v>-192000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>319200</v>
+        <v>329500</v>
       </c>
       <c r="E17" s="3">
-        <v>298300</v>
+        <v>308000</v>
       </c>
       <c r="F17" s="3">
-        <v>278300</v>
+        <v>287300</v>
       </c>
       <c r="G17" s="3">
-        <v>246900</v>
+        <v>254900</v>
       </c>
       <c r="H17" s="3">
-        <v>218400</v>
+        <v>225500</v>
       </c>
       <c r="I17" s="3">
-        <v>223000</v>
+        <v>230200</v>
       </c>
       <c r="J17" s="3">
-        <v>310400</v>
+        <v>320400</v>
       </c>
       <c r="K17" s="3">
         <v>273700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="E18" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="F18" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="G18" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="H18" s="3">
         <v>1600</v>
       </c>
       <c r="I18" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J18" s="3">
-        <v>36500</v>
+        <v>37700</v>
       </c>
       <c r="K18" s="3">
         <v>29200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>135800</v>
+        <v>140200</v>
       </c>
       <c r="I20" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="J20" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="K20" s="3">
         <v>-7000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="E21" s="3">
-        <v>33600</v>
+        <v>34600</v>
       </c>
       <c r="F21" s="3">
-        <v>23200</v>
+        <v>23900</v>
       </c>
       <c r="G21" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="H21" s="3">
-        <v>140600</v>
+        <v>145100</v>
       </c>
       <c r="I21" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="J21" s="3">
-        <v>36200</v>
+        <v>37400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
-        <v>4800</v>
-      </c>
       <c r="F22" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H22" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I22" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="J22" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="K22" s="3">
         <v>33600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="E23" s="3">
-        <v>24200</v>
+        <v>24900</v>
       </c>
       <c r="F23" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="G23" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H23" s="3">
-        <v>131400</v>
+        <v>135700</v>
       </c>
       <c r="I23" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="J23" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="K23" s="3">
         <v>-11400</v>
@@ -1191,22 +1191,22 @@
         <v>2800</v>
       </c>
       <c r="E24" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F24" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="J24" s="3">
-        <v>23900</v>
+        <v>24700</v>
       </c>
       <c r="K24" s="3">
         <v>9900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E26" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="F26" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G26" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H26" s="3">
-        <v>130300</v>
+        <v>134500</v>
       </c>
       <c r="I26" s="3">
-        <v>-23600</v>
+        <v>-24400</v>
       </c>
       <c r="J26" s="3">
-        <v>-17100</v>
+        <v>-17700</v>
       </c>
       <c r="K26" s="3">
         <v>-21300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E27" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="F27" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G27" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H27" s="3">
-        <v>130300</v>
+        <v>134500</v>
       </c>
       <c r="I27" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="J27" s="3">
-        <v>31300</v>
+        <v>32400</v>
       </c>
       <c r="K27" s="3">
         <v>567000</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-72700</v>
+        <v>-75000</v>
       </c>
       <c r="K29" s="3">
         <v>-815400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F32" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-135800</v>
+        <v>-140200</v>
       </c>
       <c r="I32" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J32" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K32" s="3">
         <v>7000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E33" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="F33" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G33" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H33" s="3">
-        <v>130300</v>
+        <v>134500</v>
       </c>
       <c r="I33" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="J33" s="3">
-        <v>-41300</v>
+        <v>-42700</v>
       </c>
       <c r="K33" s="3">
         <v>-248400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E35" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="F35" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G35" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H35" s="3">
-        <v>130300</v>
+        <v>134500</v>
       </c>
       <c r="I35" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="J35" s="3">
-        <v>-41300</v>
+        <v>-42700</v>
       </c>
       <c r="K35" s="3">
         <v>-248400</v>
@@ -1652,19 +1652,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="E41" s="3">
-        <v>21200</v>
+        <v>21900</v>
       </c>
       <c r="F41" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="G41" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="H41" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
@@ -1700,10 +1700,10 @@
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>95800</v>
+        <v>98900</v>
       </c>
       <c r="J42" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43800</v>
+        <v>45200</v>
       </c>
       <c r="E43" s="3">
-        <v>36300</v>
+        <v>37500</v>
       </c>
       <c r="F43" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="G43" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="H43" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="I43" s="3">
-        <v>22500</v>
+        <v>23200</v>
       </c>
       <c r="J43" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39500</v>
+        <v>40800</v>
       </c>
       <c r="E44" s="3">
-        <v>39600</v>
+        <v>40900</v>
       </c>
       <c r="F44" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="G44" s="3">
-        <v>17300</v>
+        <v>17800</v>
       </c>
       <c r="H44" s="3">
-        <v>37600</v>
+        <v>38800</v>
       </c>
       <c r="I44" s="3">
-        <v>19100</v>
+        <v>19700</v>
       </c>
       <c r="J44" s="3">
-        <v>37600</v>
+        <v>38800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="E45" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="F45" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J45" s="3">
-        <v>36800</v>
+        <v>38000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>115300</v>
+        <v>119000</v>
       </c>
       <c r="E46" s="3">
-        <v>114500</v>
+        <v>118200</v>
       </c>
       <c r="F46" s="3">
-        <v>102700</v>
+        <v>106000</v>
       </c>
       <c r="G46" s="3">
-        <v>72700</v>
+        <v>75000</v>
       </c>
       <c r="H46" s="3">
-        <v>89700</v>
+        <v>92500</v>
       </c>
       <c r="I46" s="3">
-        <v>142900</v>
+        <v>147400</v>
       </c>
       <c r="J46" s="3">
-        <v>110100</v>
+        <v>113600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -1859,16 +1859,16 @@
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>108900</v>
+        <v>112400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="E48" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="F48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4800</v>
-      </c>
       <c r="J48" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E49" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F49" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="G49" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H49" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I49" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="J49" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>128100</v>
+        <v>132200</v>
       </c>
       <c r="E54" s="3">
-        <v>130900</v>
+        <v>135100</v>
       </c>
       <c r="F54" s="3">
-        <v>114600</v>
+        <v>118200</v>
       </c>
       <c r="G54" s="3">
-        <v>88500</v>
+        <v>91400</v>
       </c>
       <c r="H54" s="3">
-        <v>107900</v>
+        <v>111300</v>
       </c>
       <c r="I54" s="3">
-        <v>162500</v>
+        <v>167700</v>
       </c>
       <c r="J54" s="3">
-        <v>252600</v>
+        <v>260700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="E57" s="3">
-        <v>11100</v>
+        <v>12000</v>
       </c>
       <c r="F57" s="3">
-        <v>5700</v>
+        <v>6900</v>
       </c>
       <c r="G57" s="3">
-        <v>36500</v>
+        <v>37700</v>
       </c>
       <c r="H57" s="3">
-        <v>57000</v>
+        <v>58800</v>
       </c>
       <c r="I57" s="3">
-        <v>10300</v>
+        <v>13500</v>
       </c>
       <c r="J57" s="3">
-        <v>76400</v>
+        <v>83000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2177,13 +2177,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F58" s="3">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="G58" s="3">
         <v>2900</v>
@@ -2192,10 +2192,10 @@
         <v>2900</v>
       </c>
       <c r="I58" s="3">
-        <v>272600</v>
+        <v>281300</v>
       </c>
       <c r="J58" s="3">
-        <v>89800</v>
+        <v>92700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="E59" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F59" s="3">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="G59" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H59" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I59" s="3">
-        <v>8300</v>
+        <v>5600</v>
       </c>
       <c r="J59" s="3">
-        <v>14000</v>
+        <v>10300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22300</v>
+        <v>23000</v>
       </c>
       <c r="E60" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="F60" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="G60" s="3">
-        <v>43800</v>
+        <v>45200</v>
       </c>
       <c r="H60" s="3">
-        <v>66400</v>
+        <v>68500</v>
       </c>
       <c r="I60" s="3">
-        <v>291100</v>
+        <v>300400</v>
       </c>
       <c r="J60" s="3">
-        <v>180200</v>
+        <v>185900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36300</v>
+        <v>37400</v>
       </c>
       <c r="E61" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="F61" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="G61" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="H61" s="3">
-        <v>34400</v>
+        <v>35500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>183100</v>
+        <v>188900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="I62" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="J62" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59400</v>
+        <v>61300</v>
       </c>
       <c r="E66" s="3">
-        <v>67300</v>
+        <v>69500</v>
       </c>
       <c r="F66" s="3">
-        <v>69700</v>
+        <v>72000</v>
       </c>
       <c r="G66" s="3">
-        <v>81100</v>
+        <v>83700</v>
       </c>
       <c r="H66" s="3">
-        <v>109900</v>
+        <v>113400</v>
       </c>
       <c r="I66" s="3">
-        <v>303400</v>
+        <v>313100</v>
       </c>
       <c r="J66" s="3">
-        <v>377200</v>
+        <v>389300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>244100</v>
+        <v>251900</v>
       </c>
       <c r="E72" s="3">
-        <v>239000</v>
+        <v>246600</v>
       </c>
       <c r="F72" s="3">
-        <v>220500</v>
+        <v>227600</v>
       </c>
       <c r="G72" s="3">
-        <v>205000</v>
+        <v>211500</v>
       </c>
       <c r="H72" s="3">
-        <v>199000</v>
+        <v>205300</v>
       </c>
       <c r="I72" s="3">
-        <v>68100</v>
+        <v>70300</v>
       </c>
       <c r="J72" s="3">
-        <v>87800</v>
+        <v>90600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68700</v>
+        <v>70900</v>
       </c>
       <c r="E76" s="3">
-        <v>63600</v>
+        <v>65600</v>
       </c>
       <c r="F76" s="3">
-        <v>44800</v>
+        <v>46300</v>
       </c>
       <c r="G76" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H76" s="3">
         <v>-2100</v>
       </c>
       <c r="I76" s="3">
-        <v>-140900</v>
+        <v>-145300</v>
       </c>
       <c r="J76" s="3">
-        <v>-124600</v>
+        <v>-128600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E81" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="F81" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G81" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H81" s="3">
-        <v>130300</v>
+        <v>134500</v>
       </c>
       <c r="I81" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="J81" s="3">
-        <v>-41300</v>
+        <v>-42700</v>
       </c>
       <c r="K81" s="3">
         <v>-248400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G83" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E89" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="F89" s="3">
-        <v>-32900</v>
+        <v>-33900</v>
       </c>
       <c r="G89" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="H89" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="I89" s="3">
-        <v>-36500</v>
+        <v>-37700</v>
       </c>
       <c r="J89" s="3">
-        <v>83200</v>
+        <v>85900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3163,7 +3163,7 @@
         <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3253,22 +3253,22 @@
         <v>1900</v>
       </c>
       <c r="E94" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F94" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="I94" s="3">
-        <v>56400</v>
+        <v>58300</v>
       </c>
       <c r="J94" s="3">
-        <v>60100</v>
+        <v>62100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="E100" s="3">
-        <v>-26200</v>
+        <v>-27000</v>
       </c>
       <c r="F100" s="3">
-        <v>41700</v>
+        <v>43100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I100" s="3">
-        <v>-19900</v>
+        <v>-20600</v>
       </c>
       <c r="J100" s="3">
-        <v>-155300</v>
+        <v>-160300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3466,10 +3466,10 @@
         <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F102" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="G102" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H102" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>-13100</v>
+        <v>-13500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>348100</v>
+        <v>356700</v>
       </c>
       <c r="E8" s="3">
-        <v>332500</v>
+        <v>340800</v>
       </c>
       <c r="F8" s="3">
-        <v>314400</v>
+        <v>322200</v>
       </c>
       <c r="G8" s="3">
-        <v>265800</v>
+        <v>272400</v>
       </c>
       <c r="H8" s="3">
-        <v>227100</v>
+        <v>232800</v>
       </c>
       <c r="I8" s="3">
-        <v>235400</v>
+        <v>241200</v>
       </c>
       <c r="J8" s="3">
-        <v>358100</v>
+        <v>367000</v>
       </c>
       <c r="K8" s="3">
         <v>302900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>309600</v>
+        <v>317300</v>
       </c>
       <c r="E9" s="3">
-        <v>289400</v>
+        <v>296600</v>
       </c>
       <c r="F9" s="3">
-        <v>267200</v>
+        <v>273800</v>
       </c>
       <c r="G9" s="3">
-        <v>238600</v>
+        <v>244500</v>
       </c>
       <c r="H9" s="3">
-        <v>210300</v>
+        <v>215500</v>
       </c>
       <c r="I9" s="3">
-        <v>426300</v>
+        <v>436900</v>
       </c>
       <c r="J9" s="3">
-        <v>636100</v>
+        <v>651900</v>
       </c>
       <c r="K9" s="3">
         <v>495000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="E10" s="3">
-        <v>43000</v>
+        <v>44100</v>
       </c>
       <c r="F10" s="3">
-        <v>47200</v>
+        <v>48300</v>
       </c>
       <c r="G10" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="H10" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="I10" s="3">
-        <v>-190900</v>
+        <v>-195700</v>
       </c>
       <c r="J10" s="3">
-        <v>-278000</v>
+        <v>-284900</v>
       </c>
       <c r="K10" s="3">
         <v>-192000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>329500</v>
+        <v>337700</v>
       </c>
       <c r="E17" s="3">
-        <v>308000</v>
+        <v>315600</v>
       </c>
       <c r="F17" s="3">
-        <v>287300</v>
+        <v>294500</v>
       </c>
       <c r="G17" s="3">
-        <v>254900</v>
+        <v>261300</v>
       </c>
       <c r="H17" s="3">
-        <v>225500</v>
+        <v>231100</v>
       </c>
       <c r="I17" s="3">
-        <v>230200</v>
+        <v>235900</v>
       </c>
       <c r="J17" s="3">
-        <v>320400</v>
+        <v>328400</v>
       </c>
       <c r="K17" s="3">
         <v>273700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="E18" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="F18" s="3">
-        <v>27000</v>
+        <v>27700</v>
       </c>
       <c r="G18" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="H18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I18" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J18" s="3">
-        <v>37700</v>
+        <v>38600</v>
       </c>
       <c r="K18" s="3">
         <v>29200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>140200</v>
+        <v>143700</v>
       </c>
       <c r="I20" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J20" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="K20" s="3">
         <v>-7000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="E21" s="3">
-        <v>34600</v>
+        <v>35500</v>
       </c>
       <c r="F21" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="G21" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="H21" s="3">
-        <v>145100</v>
+        <v>148700</v>
       </c>
       <c r="I21" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="J21" s="3">
-        <v>37400</v>
+        <v>38300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
-        <v>5000</v>
-      </c>
       <c r="F22" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G22" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H22" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I22" s="3">
-        <v>24400</v>
+        <v>25000</v>
       </c>
       <c r="J22" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="K22" s="3">
         <v>33600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E23" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="F23" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="G23" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H23" s="3">
-        <v>135700</v>
+        <v>139100</v>
       </c>
       <c r="I23" s="3">
-        <v>-11700</v>
+        <v>-12000</v>
       </c>
       <c r="J23" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K23" s="3">
         <v>-11400</v>
@@ -1188,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E24" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="J24" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="K24" s="3">
         <v>9900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E26" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F26" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G26" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H26" s="3">
-        <v>134500</v>
+        <v>137900</v>
       </c>
       <c r="I26" s="3">
-        <v>-24400</v>
+        <v>-25000</v>
       </c>
       <c r="J26" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="K26" s="3">
         <v>-21300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E27" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F27" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G27" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H27" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="I27" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="J27" s="3">
-        <v>32400</v>
+        <v>33200</v>
       </c>
       <c r="K27" s="3">
         <v>567000</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-75000</v>
+        <v>-76900</v>
       </c>
       <c r="K29" s="3">
         <v>-815400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="F32" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-140200</v>
+        <v>-143700</v>
       </c>
       <c r="I32" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="J32" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K32" s="3">
         <v>7000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E33" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F33" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G33" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H33" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="I33" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="J33" s="3">
-        <v>-42700</v>
+        <v>-43700</v>
       </c>
       <c r="K33" s="3">
         <v>-248400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F35" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G35" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H35" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="I35" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="J35" s="3">
-        <v>-42700</v>
+        <v>-43700</v>
       </c>
       <c r="K35" s="3">
         <v>-248400</v>
@@ -1652,19 +1652,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="E41" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="F41" s="3">
-        <v>24600</v>
+        <v>25200</v>
       </c>
       <c r="G41" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H41" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
@@ -1700,7 +1700,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>98900</v>
+        <v>101300</v>
       </c>
       <c r="J42" s="3">
         <v>1200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45200</v>
+        <v>46300</v>
       </c>
       <c r="E43" s="3">
-        <v>37500</v>
+        <v>38400</v>
       </c>
       <c r="F43" s="3">
-        <v>29500</v>
+        <v>30300</v>
       </c>
       <c r="G43" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="H43" s="3">
-        <v>35900</v>
+        <v>36800</v>
       </c>
       <c r="I43" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="J43" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40800</v>
+        <v>41800</v>
       </c>
       <c r="E44" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="F44" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="G44" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="H44" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="I44" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="J44" s="3">
-        <v>38800</v>
+        <v>39800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="E45" s="3">
-        <v>17900</v>
+        <v>18300</v>
       </c>
       <c r="F45" s="3">
-        <v>23800</v>
+        <v>24400</v>
       </c>
       <c r="G45" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="H45" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I45" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J45" s="3">
-        <v>38000</v>
+        <v>38900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119000</v>
+        <v>122000</v>
       </c>
       <c r="E46" s="3">
-        <v>118200</v>
+        <v>121100</v>
       </c>
       <c r="F46" s="3">
-        <v>106000</v>
+        <v>108600</v>
       </c>
       <c r="G46" s="3">
-        <v>75000</v>
+        <v>76900</v>
       </c>
       <c r="H46" s="3">
-        <v>92500</v>
+        <v>94800</v>
       </c>
       <c r="I46" s="3">
-        <v>147400</v>
+        <v>151100</v>
       </c>
       <c r="J46" s="3">
-        <v>113600</v>
+        <v>116400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -1859,7 +1859,7 @@
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>112400</v>
+        <v>115200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="E48" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="F48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5000</v>
-      </c>
       <c r="J48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1919,22 +1919,22 @@
         <v>2800</v>
       </c>
       <c r="E49" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F49" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G49" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H49" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="I49" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="J49" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2033,7 +2033,7 @@
         <v>1200</v>
       </c>
       <c r="J52" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>132200</v>
+        <v>135500</v>
       </c>
       <c r="E54" s="3">
-        <v>135100</v>
+        <v>138500</v>
       </c>
       <c r="F54" s="3">
-        <v>118200</v>
+        <v>121200</v>
       </c>
       <c r="G54" s="3">
-        <v>91400</v>
+        <v>93600</v>
       </c>
       <c r="H54" s="3">
-        <v>111300</v>
+        <v>114100</v>
       </c>
       <c r="I54" s="3">
-        <v>167700</v>
+        <v>171900</v>
       </c>
       <c r="J54" s="3">
-        <v>260700</v>
+        <v>267200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="F57" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="G57" s="3">
-        <v>37700</v>
+        <v>38600</v>
       </c>
       <c r="H57" s="3">
-        <v>58800</v>
+        <v>60300</v>
       </c>
       <c r="I57" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="J57" s="3">
-        <v>83000</v>
+        <v>85000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F58" s="3">
-        <v>24100</v>
+        <v>24700</v>
       </c>
       <c r="G58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3">
-        <v>281300</v>
+        <v>288300</v>
       </c>
       <c r="J58" s="3">
-        <v>92700</v>
+        <v>95000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E59" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="F59" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G59" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H59" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="I59" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J59" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="E60" s="3">
-        <v>28700</v>
+        <v>29400</v>
       </c>
       <c r="F60" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="G60" s="3">
-        <v>45200</v>
+        <v>46400</v>
       </c>
       <c r="H60" s="3">
-        <v>68500</v>
+        <v>70200</v>
       </c>
       <c r="I60" s="3">
-        <v>300400</v>
+        <v>307900</v>
       </c>
       <c r="J60" s="3">
-        <v>185900</v>
+        <v>190600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37400</v>
+        <v>38300</v>
       </c>
       <c r="E61" s="3">
-        <v>39700</v>
+        <v>40700</v>
       </c>
       <c r="F61" s="3">
-        <v>35700</v>
+        <v>36600</v>
       </c>
       <c r="G61" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="H61" s="3">
-        <v>35500</v>
+        <v>36400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>188900</v>
+        <v>193600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="I62" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J62" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61300</v>
+        <v>62800</v>
       </c>
       <c r="E66" s="3">
-        <v>69500</v>
+        <v>71200</v>
       </c>
       <c r="F66" s="3">
-        <v>72000</v>
+        <v>73800</v>
       </c>
       <c r="G66" s="3">
-        <v>83700</v>
+        <v>85800</v>
       </c>
       <c r="H66" s="3">
-        <v>113400</v>
+        <v>116300</v>
       </c>
       <c r="I66" s="3">
-        <v>313100</v>
+        <v>320800</v>
       </c>
       <c r="J66" s="3">
-        <v>389300</v>
+        <v>398900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>251900</v>
+        <v>258100</v>
       </c>
       <c r="E72" s="3">
-        <v>246600</v>
+        <v>252700</v>
       </c>
       <c r="F72" s="3">
-        <v>227600</v>
+        <v>233200</v>
       </c>
       <c r="G72" s="3">
-        <v>211500</v>
+        <v>216800</v>
       </c>
       <c r="H72" s="3">
-        <v>205300</v>
+        <v>210400</v>
       </c>
       <c r="I72" s="3">
-        <v>70300</v>
+        <v>72100</v>
       </c>
       <c r="J72" s="3">
-        <v>90600</v>
+        <v>92900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70900</v>
+        <v>72600</v>
       </c>
       <c r="E76" s="3">
-        <v>65600</v>
+        <v>67300</v>
       </c>
       <c r="F76" s="3">
-        <v>46300</v>
+        <v>47400</v>
       </c>
       <c r="G76" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H76" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I76" s="3">
-        <v>-145300</v>
+        <v>-149000</v>
       </c>
       <c r="J76" s="3">
-        <v>-128600</v>
+        <v>-131800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E81" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F81" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G81" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H81" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="I81" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="J81" s="3">
-        <v>-42700</v>
+        <v>-43700</v>
       </c>
       <c r="K81" s="3">
         <v>-248400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E83" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I83" s="3">
         <v>2400</v>
       </c>
       <c r="J83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E89" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="F89" s="3">
-        <v>-33900</v>
+        <v>-34800</v>
       </c>
       <c r="G89" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H89" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="I89" s="3">
-        <v>-37700</v>
+        <v>-38600</v>
       </c>
       <c r="J89" s="3">
-        <v>85900</v>
+        <v>88000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3157,7 +3157,7 @@
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E94" s="3">
         <v>3400</v>
       </c>
       <c r="F94" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G94" s="3">
         <v>-1400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I94" s="3">
-        <v>58300</v>
+        <v>59700</v>
       </c>
       <c r="J94" s="3">
-        <v>62100</v>
+        <v>63600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E100" s="3">
-        <v>-27000</v>
+        <v>-27700</v>
       </c>
       <c r="F100" s="3">
-        <v>43100</v>
+        <v>44200</v>
       </c>
       <c r="G100" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H100" s="3">
         <v>-1200</v>
       </c>
       <c r="I100" s="3">
-        <v>-20600</v>
+        <v>-21100</v>
       </c>
       <c r="J100" s="3">
-        <v>-160300</v>
+        <v>-164300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F102" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="G102" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H102" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>356700</v>
+        <v>355800</v>
       </c>
       <c r="E8" s="3">
-        <v>340800</v>
+        <v>339900</v>
       </c>
       <c r="F8" s="3">
-        <v>322200</v>
+        <v>321300</v>
       </c>
       <c r="G8" s="3">
-        <v>272400</v>
+        <v>271700</v>
       </c>
       <c r="H8" s="3">
-        <v>232800</v>
+        <v>232200</v>
       </c>
       <c r="I8" s="3">
-        <v>241200</v>
+        <v>240600</v>
       </c>
       <c r="J8" s="3">
-        <v>367000</v>
+        <v>366000</v>
       </c>
       <c r="K8" s="3">
         <v>302900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>317300</v>
+        <v>316500</v>
       </c>
       <c r="E9" s="3">
-        <v>296600</v>
+        <v>295900</v>
       </c>
       <c r="F9" s="3">
-        <v>273800</v>
+        <v>273100</v>
       </c>
       <c r="G9" s="3">
-        <v>244500</v>
+        <v>243900</v>
       </c>
       <c r="H9" s="3">
-        <v>215500</v>
+        <v>215000</v>
       </c>
       <c r="I9" s="3">
-        <v>436900</v>
+        <v>435800</v>
       </c>
       <c r="J9" s="3">
-        <v>651900</v>
+        <v>650200</v>
       </c>
       <c r="K9" s="3">
         <v>495000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39400</v>
+        <v>39300</v>
       </c>
       <c r="E10" s="3">
-        <v>44100</v>
+        <v>44000</v>
       </c>
       <c r="F10" s="3">
-        <v>48300</v>
+        <v>48200</v>
       </c>
       <c r="G10" s="3">
         <v>27800</v>
       </c>
       <c r="H10" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="I10" s="3">
-        <v>-195700</v>
+        <v>-195200</v>
       </c>
       <c r="J10" s="3">
-        <v>-284900</v>
+        <v>-284200</v>
       </c>
       <c r="K10" s="3">
         <v>-192000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>337700</v>
+        <v>336800</v>
       </c>
       <c r="E17" s="3">
-        <v>315600</v>
+        <v>314800</v>
       </c>
       <c r="F17" s="3">
-        <v>294500</v>
+        <v>293700</v>
       </c>
       <c r="G17" s="3">
-        <v>261300</v>
+        <v>260600</v>
       </c>
       <c r="H17" s="3">
-        <v>231100</v>
+        <v>230500</v>
       </c>
       <c r="I17" s="3">
-        <v>235900</v>
+        <v>235300</v>
       </c>
       <c r="J17" s="3">
-        <v>328400</v>
+        <v>327500</v>
       </c>
       <c r="K17" s="3">
         <v>273700</v>
@@ -1014,7 +1014,7 @@
         <v>25100</v>
       </c>
       <c r="F18" s="3">
-        <v>27700</v>
+        <v>27600</v>
       </c>
       <c r="G18" s="3">
         <v>11100</v>
@@ -1026,7 +1026,7 @@
         <v>5300</v>
       </c>
       <c r="J18" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="K18" s="3">
         <v>29200</v>
@@ -1068,7 +1068,7 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>143700</v>
+        <v>143300</v>
       </c>
       <c r="I20" s="3">
         <v>7700</v>
@@ -1092,7 +1092,7 @@
         <v>18400</v>
       </c>
       <c r="E21" s="3">
-        <v>35500</v>
+        <v>35400</v>
       </c>
       <c r="F21" s="3">
         <v>24500</v>
@@ -1101,13 +1101,13 @@
         <v>14300</v>
       </c>
       <c r="H21" s="3">
-        <v>148700</v>
+        <v>148400</v>
       </c>
       <c r="I21" s="3">
         <v>15400</v>
       </c>
       <c r="J21" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1137,7 +1137,7 @@
         <v>6300</v>
       </c>
       <c r="I22" s="3">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="J22" s="3">
         <v>26800</v>
@@ -1158,7 +1158,7 @@
         <v>8500</v>
       </c>
       <c r="E23" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="F23" s="3">
         <v>16400</v>
@@ -1167,7 +1167,7 @@
         <v>6200</v>
       </c>
       <c r="H23" s="3">
-        <v>139100</v>
+        <v>138700</v>
       </c>
       <c r="I23" s="3">
         <v>-12000</v>
@@ -1266,13 +1266,13 @@
         <v>6200</v>
       </c>
       <c r="H26" s="3">
-        <v>137900</v>
+        <v>137500</v>
       </c>
       <c r="I26" s="3">
-        <v>-25000</v>
+        <v>-24900</v>
       </c>
       <c r="J26" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="K26" s="3">
         <v>-21300</v>
@@ -1299,13 +1299,13 @@
         <v>6200</v>
       </c>
       <c r="H27" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="I27" s="3">
         <v>-24900</v>
       </c>
       <c r="J27" s="3">
-        <v>33200</v>
+        <v>33100</v>
       </c>
       <c r="K27" s="3">
         <v>567000</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-76900</v>
+        <v>-76700</v>
       </c>
       <c r="K29" s="3">
         <v>-815400</v>
@@ -1464,7 +1464,7 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-143700</v>
+        <v>-143300</v>
       </c>
       <c r="I32" s="3">
         <v>-7700</v>
@@ -1497,13 +1497,13 @@
         <v>6200</v>
       </c>
       <c r="H33" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="I33" s="3">
         <v>-24900</v>
       </c>
       <c r="J33" s="3">
-        <v>-43700</v>
+        <v>-43600</v>
       </c>
       <c r="K33" s="3">
         <v>-248400</v>
@@ -1563,13 +1563,13 @@
         <v>6200</v>
       </c>
       <c r="H35" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="I35" s="3">
         <v>-24900</v>
       </c>
       <c r="J35" s="3">
-        <v>-43700</v>
+        <v>-43600</v>
       </c>
       <c r="K35" s="3">
         <v>-248400</v>
@@ -1655,7 +1655,7 @@
         <v>18800</v>
       </c>
       <c r="E41" s="3">
-        <v>22500</v>
+        <v>22400</v>
       </c>
       <c r="F41" s="3">
         <v>25200</v>
@@ -1700,7 +1700,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>101300</v>
+        <v>101100</v>
       </c>
       <c r="J42" s="3">
         <v>1200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46300</v>
+        <v>46200</v>
       </c>
       <c r="E43" s="3">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="F43" s="3">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="G43" s="3">
-        <v>36100</v>
+        <v>36000</v>
       </c>
       <c r="H43" s="3">
-        <v>36800</v>
+        <v>36700</v>
       </c>
       <c r="I43" s="3">
         <v>23800</v>
       </c>
       <c r="J43" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E44" s="3">
         <v>41800</v>
       </c>
-      <c r="E44" s="3">
-        <v>41900</v>
-      </c>
       <c r="F44" s="3">
-        <v>28700</v>
+        <v>28600</v>
       </c>
       <c r="G44" s="3">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="H44" s="3">
-        <v>39700</v>
+        <v>39600</v>
       </c>
       <c r="I44" s="3">
         <v>20200</v>
       </c>
       <c r="J44" s="3">
-        <v>39800</v>
+        <v>39700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="E45" s="3">
         <v>18300</v>
       </c>
       <c r="F45" s="3">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="G45" s="3">
         <v>12100</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I45" s="3">
         <v>5100</v>
       </c>
       <c r="J45" s="3">
-        <v>38900</v>
+        <v>38800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>122000</v>
+        <v>121600</v>
       </c>
       <c r="E46" s="3">
-        <v>121100</v>
+        <v>120800</v>
       </c>
       <c r="F46" s="3">
-        <v>108600</v>
+        <v>108300</v>
       </c>
       <c r="G46" s="3">
-        <v>76900</v>
+        <v>76700</v>
       </c>
       <c r="H46" s="3">
-        <v>94800</v>
+        <v>94600</v>
       </c>
       <c r="I46" s="3">
-        <v>151100</v>
+        <v>150700</v>
       </c>
       <c r="J46" s="3">
-        <v>116400</v>
+        <v>116100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -1859,7 +1859,7 @@
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>115200</v>
+        <v>114900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1889,10 +1889,10 @@
         <v>12200</v>
       </c>
       <c r="F48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G48" s="3">
         <v>5300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>5500</v>
@@ -1925,16 +1925,16 @@
         <v>7000</v>
       </c>
       <c r="G49" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="H49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="I49" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J49" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2033,7 +2033,7 @@
         <v>1200</v>
       </c>
       <c r="J52" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>135500</v>
+        <v>135100</v>
       </c>
       <c r="E54" s="3">
-        <v>138500</v>
+        <v>138100</v>
       </c>
       <c r="F54" s="3">
-        <v>121200</v>
+        <v>120900</v>
       </c>
       <c r="G54" s="3">
-        <v>93600</v>
+        <v>93400</v>
       </c>
       <c r="H54" s="3">
-        <v>114100</v>
+        <v>113800</v>
       </c>
       <c r="I54" s="3">
-        <v>171900</v>
+        <v>171400</v>
       </c>
       <c r="J54" s="3">
-        <v>267200</v>
+        <v>266500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2147,22 +2147,22 @@
         <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="F57" s="3">
         <v>7100</v>
       </c>
       <c r="G57" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="H57" s="3">
-        <v>60300</v>
+        <v>60200</v>
       </c>
       <c r="I57" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="J57" s="3">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2183,7 +2183,7 @@
         <v>4500</v>
       </c>
       <c r="F58" s="3">
-        <v>24700</v>
+        <v>24600</v>
       </c>
       <c r="G58" s="3">
         <v>3000</v>
@@ -2192,10 +2192,10 @@
         <v>3000</v>
       </c>
       <c r="I58" s="3">
-        <v>288300</v>
+        <v>287500</v>
       </c>
       <c r="J58" s="3">
-        <v>95000</v>
+        <v>94700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2213,22 +2213,22 @@
         <v>8600</v>
       </c>
       <c r="E59" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F59" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G59" s="3">
         <v>4700</v>
       </c>
       <c r="H59" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I59" s="3">
         <v>5700</v>
       </c>
       <c r="J59" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="E60" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="F60" s="3">
-        <v>36100</v>
+        <v>36000</v>
       </c>
       <c r="G60" s="3">
-        <v>46400</v>
+        <v>46200</v>
       </c>
       <c r="H60" s="3">
-        <v>70200</v>
+        <v>70000</v>
       </c>
       <c r="I60" s="3">
-        <v>307900</v>
+        <v>307100</v>
       </c>
       <c r="J60" s="3">
-        <v>190600</v>
+        <v>190100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="E61" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="F61" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="G61" s="3">
-        <v>36200</v>
+        <v>36100</v>
       </c>
       <c r="H61" s="3">
-        <v>36400</v>
+        <v>36300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>193600</v>
+        <v>193100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>9300</v>
       </c>
       <c r="I62" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="J62" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="E66" s="3">
-        <v>71200</v>
+        <v>71000</v>
       </c>
       <c r="F66" s="3">
-        <v>73800</v>
+        <v>73600</v>
       </c>
       <c r="G66" s="3">
-        <v>85800</v>
+        <v>85500</v>
       </c>
       <c r="H66" s="3">
-        <v>116300</v>
+        <v>116000</v>
       </c>
       <c r="I66" s="3">
-        <v>320800</v>
+        <v>320000</v>
       </c>
       <c r="J66" s="3">
-        <v>398900</v>
+        <v>397900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>258100</v>
+        <v>257500</v>
       </c>
       <c r="E72" s="3">
-        <v>252700</v>
+        <v>252100</v>
       </c>
       <c r="F72" s="3">
-        <v>233200</v>
+        <v>232600</v>
       </c>
       <c r="G72" s="3">
-        <v>216800</v>
+        <v>216200</v>
       </c>
       <c r="H72" s="3">
-        <v>210400</v>
+        <v>209900</v>
       </c>
       <c r="I72" s="3">
-        <v>72100</v>
+        <v>71900</v>
       </c>
       <c r="J72" s="3">
-        <v>92900</v>
+        <v>92600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72600</v>
+        <v>72500</v>
       </c>
       <c r="E76" s="3">
-        <v>67300</v>
+        <v>67100</v>
       </c>
       <c r="F76" s="3">
-        <v>47400</v>
+        <v>47300</v>
       </c>
       <c r="G76" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H76" s="3">
         <v>-2200</v>
       </c>
       <c r="I76" s="3">
-        <v>-149000</v>
+        <v>-148600</v>
       </c>
       <c r="J76" s="3">
-        <v>-131800</v>
+        <v>-131400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -2869,13 +2869,13 @@
         <v>6200</v>
       </c>
       <c r="H81" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="I81" s="3">
         <v>-24900</v>
       </c>
       <c r="J81" s="3">
-        <v>-43700</v>
+        <v>-43600</v>
       </c>
       <c r="K81" s="3">
         <v>-248400</v>
@@ -2914,7 +2914,7 @@
         <v>3000</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H83" s="3">
         <v>3400</v>
@@ -3109,7 +3109,7 @@
         <v>20900</v>
       </c>
       <c r="F89" s="3">
-        <v>-34800</v>
+        <v>-34700</v>
       </c>
       <c r="G89" s="3">
         <v>8700</v>
@@ -3118,10 +3118,10 @@
         <v>14700</v>
       </c>
       <c r="I89" s="3">
-        <v>-38600</v>
+        <v>-38500</v>
       </c>
       <c r="J89" s="3">
-        <v>88000</v>
+        <v>87800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3265,10 +3265,10 @@
         <v>-6600</v>
       </c>
       <c r="I94" s="3">
-        <v>59700</v>
+        <v>59600</v>
       </c>
       <c r="J94" s="3">
-        <v>63600</v>
+        <v>63500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3433,10 +3433,10 @@
         <v>-8100</v>
       </c>
       <c r="E100" s="3">
-        <v>-27700</v>
+        <v>-27600</v>
       </c>
       <c r="F100" s="3">
-        <v>44200</v>
+        <v>44100</v>
       </c>
       <c r="G100" s="3">
         <v>-4300</v>
@@ -3448,7 +3448,7 @@
         <v>-21100</v>
       </c>
       <c r="J100" s="3">
-        <v>-164300</v>
+        <v>-163900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3514,7 +3514,7 @@
         <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>SCIXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>355800</v>
+        <v>279600</v>
       </c>
       <c r="E8" s="3">
-        <v>339900</v>
+        <v>365100</v>
       </c>
       <c r="F8" s="3">
-        <v>321300</v>
+        <v>348800</v>
       </c>
       <c r="G8" s="3">
-        <v>271700</v>
+        <v>329800</v>
       </c>
       <c r="H8" s="3">
-        <v>232200</v>
+        <v>278800</v>
       </c>
       <c r="I8" s="3">
-        <v>240600</v>
+        <v>238300</v>
       </c>
       <c r="J8" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K8" s="3">
         <v>366000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>302900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2134400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>316500</v>
+        <v>250500</v>
       </c>
       <c r="E9" s="3">
-        <v>295900</v>
+        <v>324800</v>
       </c>
       <c r="F9" s="3">
-        <v>273100</v>
+        <v>303600</v>
       </c>
       <c r="G9" s="3">
-        <v>243900</v>
+        <v>280300</v>
       </c>
       <c r="H9" s="3">
-        <v>215000</v>
+        <v>250300</v>
       </c>
       <c r="I9" s="3">
-        <v>435800</v>
+        <v>220600</v>
       </c>
       <c r="J9" s="3">
+        <v>447200</v>
+      </c>
+      <c r="K9" s="3">
         <v>650200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>495000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1707800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39300</v>
+        <v>29100</v>
       </c>
       <c r="E10" s="3">
-        <v>44000</v>
+        <v>40300</v>
       </c>
       <c r="F10" s="3">
-        <v>48200</v>
+        <v>45200</v>
       </c>
       <c r="G10" s="3">
-        <v>27800</v>
+        <v>49500</v>
       </c>
       <c r="H10" s="3">
-        <v>17200</v>
+        <v>28500</v>
       </c>
       <c r="I10" s="3">
-        <v>-195200</v>
+        <v>17700</v>
       </c>
       <c r="J10" s="3">
+        <v>-200300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-284200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-192000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>426500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,27 +924,30 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>329100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,15 +972,18 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>8800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>336800</v>
+        <v>265400</v>
       </c>
       <c r="E17" s="3">
-        <v>314800</v>
+        <v>345700</v>
       </c>
       <c r="F17" s="3">
-        <v>293700</v>
+        <v>323100</v>
       </c>
       <c r="G17" s="3">
-        <v>260600</v>
+        <v>301400</v>
       </c>
       <c r="H17" s="3">
-        <v>230500</v>
+        <v>267400</v>
       </c>
       <c r="I17" s="3">
-        <v>235300</v>
+        <v>236600</v>
       </c>
       <c r="J17" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K17" s="3">
         <v>327500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>273700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2274500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19000</v>
+        <v>14300</v>
       </c>
       <c r="E18" s="3">
-        <v>25100</v>
+        <v>19500</v>
       </c>
       <c r="F18" s="3">
-        <v>27600</v>
+        <v>25700</v>
       </c>
       <c r="G18" s="3">
-        <v>11100</v>
+        <v>28400</v>
       </c>
       <c r="H18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
-        <v>5300</v>
-      </c>
       <c r="J18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K18" s="3">
         <v>38500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-140200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5300</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>-5400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6100</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>143300</v>
-      </c>
       <c r="I20" s="3">
-        <v>7700</v>
+        <v>147100</v>
       </c>
       <c r="J20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-142900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18400</v>
+        <v>15000</v>
       </c>
       <c r="E21" s="3">
-        <v>35400</v>
+        <v>18800</v>
       </c>
       <c r="F21" s="3">
-        <v>24500</v>
+        <v>36300</v>
       </c>
       <c r="G21" s="3">
-        <v>14300</v>
+        <v>25100</v>
       </c>
       <c r="H21" s="3">
-        <v>148400</v>
+        <v>14600</v>
       </c>
       <c r="I21" s="3">
-        <v>15400</v>
+        <v>152300</v>
       </c>
       <c r="J21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K21" s="3">
         <v>38200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>98800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5100</v>
-      </c>
       <c r="G22" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H22" s="3">
-        <v>6300</v>
+        <v>5200</v>
       </c>
       <c r="I22" s="3">
-        <v>24900</v>
+        <v>6500</v>
       </c>
       <c r="J22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K22" s="3">
         <v>26800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8500</v>
+        <v>7100</v>
       </c>
       <c r="E23" s="3">
-        <v>25500</v>
+        <v>8700</v>
       </c>
       <c r="F23" s="3">
-        <v>16400</v>
+        <v>26200</v>
       </c>
       <c r="G23" s="3">
-        <v>6200</v>
+        <v>16800</v>
       </c>
       <c r="H23" s="3">
-        <v>138700</v>
+        <v>6400</v>
       </c>
       <c r="I23" s="3">
-        <v>-12000</v>
+        <v>142400</v>
       </c>
       <c r="J23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K23" s="3">
         <v>7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-283100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>5900</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>3900</v>
+        <v>6100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>12900</v>
-      </c>
       <c r="J24" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K24" s="3">
         <v>25300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E26" s="3">
-        <v>19600</v>
+        <v>5700</v>
       </c>
       <c r="F26" s="3">
-        <v>12600</v>
+        <v>20100</v>
       </c>
       <c r="G26" s="3">
-        <v>6200</v>
+        <v>12900</v>
       </c>
       <c r="H26" s="3">
-        <v>137500</v>
+        <v>6400</v>
       </c>
       <c r="I26" s="3">
-        <v>-24900</v>
+        <v>141100</v>
       </c>
       <c r="J26" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-334900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E27" s="3">
-        <v>19600</v>
+        <v>5700</v>
       </c>
       <c r="F27" s="3">
-        <v>12600</v>
+        <v>20100</v>
       </c>
       <c r="G27" s="3">
-        <v>6200</v>
+        <v>12900</v>
       </c>
       <c r="H27" s="3">
-        <v>137500</v>
+        <v>6400</v>
       </c>
       <c r="I27" s="3">
-        <v>-24900</v>
+        <v>141100</v>
       </c>
       <c r="J27" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K27" s="3">
         <v>33100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>567000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-149000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,24 +1424,27 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-76700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-815400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5300</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>5400</v>
       </c>
       <c r="F32" s="3">
-        <v>6100</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-143300</v>
-      </c>
       <c r="I32" s="3">
-        <v>-7700</v>
+        <v>-147100</v>
       </c>
       <c r="J32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>142900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E33" s="3">
-        <v>19600</v>
+        <v>5700</v>
       </c>
       <c r="F33" s="3">
-        <v>12600</v>
+        <v>20100</v>
       </c>
       <c r="G33" s="3">
-        <v>6200</v>
+        <v>12900</v>
       </c>
       <c r="H33" s="3">
-        <v>137500</v>
+        <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>-24900</v>
+        <v>141100</v>
       </c>
       <c r="J33" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-43600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-248400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-149000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E35" s="3">
-        <v>19600</v>
+        <v>5700</v>
       </c>
       <c r="F35" s="3">
-        <v>12600</v>
+        <v>20100</v>
       </c>
       <c r="G35" s="3">
-        <v>6200</v>
+        <v>12900</v>
       </c>
       <c r="H35" s="3">
-        <v>137500</v>
+        <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>-24900</v>
+        <v>141100</v>
       </c>
       <c r="J35" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-43600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-248400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-149000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18800</v>
+        <v>45800</v>
       </c>
       <c r="E41" s="3">
-        <v>22400</v>
+        <v>19200</v>
       </c>
       <c r="F41" s="3">
-        <v>25200</v>
+        <v>23000</v>
       </c>
       <c r="G41" s="3">
-        <v>10300</v>
+        <v>25800</v>
       </c>
       <c r="H41" s="3">
-        <v>7300</v>
+        <v>10600</v>
       </c>
       <c r="I41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>294100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1693,258 +1782,282 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>101100</v>
+        <v>800</v>
       </c>
       <c r="J42" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>37500</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>46200</v>
+        <v>40100</v>
       </c>
       <c r="E43" s="3">
-        <v>38300</v>
+        <v>47400</v>
       </c>
       <c r="F43" s="3">
-        <v>30200</v>
+        <v>39300</v>
       </c>
       <c r="G43" s="3">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="H43" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="I43" s="3">
-        <v>23800</v>
+        <v>37600</v>
       </c>
       <c r="J43" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K43" s="3">
         <v>36100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>477600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41700</v>
+        <v>24300</v>
       </c>
       <c r="E44" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="F44" s="3">
-        <v>28600</v>
+        <v>42900</v>
       </c>
       <c r="G44" s="3">
-        <v>18200</v>
+        <v>29400</v>
       </c>
       <c r="H44" s="3">
-        <v>39600</v>
+        <v>18700</v>
       </c>
       <c r="I44" s="3">
-        <v>20200</v>
+        <v>40700</v>
       </c>
       <c r="J44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K44" s="3">
         <v>39700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>59300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15000</v>
+        <v>13800</v>
       </c>
       <c r="E45" s="3">
-        <v>18300</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>24300</v>
+        <v>18700</v>
       </c>
       <c r="G45" s="3">
-        <v>12100</v>
+        <v>25000</v>
       </c>
       <c r="H45" s="3">
-        <v>10200</v>
+        <v>12400</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>10500</v>
       </c>
       <c r="J45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K45" s="3">
         <v>38800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>121600</v>
+        <v>124000</v>
       </c>
       <c r="E46" s="3">
-        <v>120800</v>
+        <v>124800</v>
       </c>
       <c r="F46" s="3">
-        <v>108300</v>
+        <v>124000</v>
       </c>
       <c r="G46" s="3">
-        <v>76700</v>
+        <v>111200</v>
       </c>
       <c r="H46" s="3">
-        <v>94600</v>
+        <v>78700</v>
       </c>
       <c r="I46" s="3">
-        <v>150700</v>
+        <v>97100</v>
       </c>
       <c r="J46" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K46" s="3">
         <v>116100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>873800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>114900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3">
         <v>236400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10400</v>
+        <v>8900</v>
       </c>
       <c r="E48" s="3">
-        <v>12200</v>
+        <v>10600</v>
       </c>
       <c r="F48" s="3">
-        <v>5200</v>
+        <v>12500</v>
       </c>
       <c r="G48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>5500</v>
       </c>
       <c r="I48" s="3">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="J48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>566100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>4700</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="G49" s="3">
-        <v>9300</v>
+        <v>7200</v>
       </c>
       <c r="H49" s="3">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="I49" s="3">
-        <v>14400</v>
+        <v>11900</v>
       </c>
       <c r="J49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K49" s="3">
         <v>16500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>2394500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,14 +2124,17 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>2200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2026,24 +2145,27 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>77300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>135100</v>
+        <v>137800</v>
       </c>
       <c r="E54" s="3">
-        <v>138100</v>
+        <v>138700</v>
       </c>
       <c r="F54" s="3">
-        <v>120900</v>
+        <v>141700</v>
       </c>
       <c r="G54" s="3">
-        <v>93400</v>
+        <v>124000</v>
       </c>
       <c r="H54" s="3">
-        <v>113800</v>
+        <v>95800</v>
       </c>
       <c r="I54" s="3">
-        <v>171400</v>
+        <v>116800</v>
       </c>
       <c r="J54" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K54" s="3">
         <v>266500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>4148200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10400</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
-        <v>12200</v>
+        <v>10600</v>
       </c>
       <c r="F57" s="3">
-        <v>7100</v>
+        <v>12600</v>
       </c>
       <c r="G57" s="3">
-        <v>38500</v>
+        <v>7300</v>
       </c>
       <c r="H57" s="3">
-        <v>60200</v>
+        <v>39500</v>
       </c>
       <c r="I57" s="3">
-        <v>13800</v>
+        <v>61700</v>
       </c>
       <c r="J57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K57" s="3">
         <v>84800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>315600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F58" s="3">
-        <v>24600</v>
+        <v>4600</v>
       </c>
       <c r="G58" s="3">
-        <v>3000</v>
+        <v>25300</v>
       </c>
       <c r="H58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3">
-        <v>287500</v>
+        <v>3100</v>
       </c>
       <c r="J58" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K58" s="3">
         <v>94700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>339900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8600</v>
+        <v>9300</v>
       </c>
       <c r="E59" s="3">
-        <v>12500</v>
+        <v>8800</v>
       </c>
       <c r="F59" s="3">
-        <v>4300</v>
+        <v>12900</v>
       </c>
       <c r="G59" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H59" s="3">
-        <v>6800</v>
+        <v>4800</v>
       </c>
       <c r="I59" s="3">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="J59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>102900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23500</v>
+        <v>20100</v>
       </c>
       <c r="E60" s="3">
-        <v>29300</v>
+        <v>24100</v>
       </c>
       <c r="F60" s="3">
-        <v>36000</v>
+        <v>30100</v>
       </c>
       <c r="G60" s="3">
-        <v>46200</v>
+        <v>37000</v>
       </c>
       <c r="H60" s="3">
-        <v>70000</v>
+        <v>47500</v>
       </c>
       <c r="I60" s="3">
-        <v>307100</v>
+        <v>71800</v>
       </c>
       <c r="J60" s="3">
+        <v>315100</v>
+      </c>
+      <c r="K60" s="3">
         <v>190100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>758400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38200</v>
+        <v>36800</v>
       </c>
       <c r="E61" s="3">
-        <v>40600</v>
+        <v>39200</v>
       </c>
       <c r="F61" s="3">
-        <v>36500</v>
+        <v>41700</v>
       </c>
       <c r="G61" s="3">
-        <v>36100</v>
+        <v>37400</v>
       </c>
       <c r="H61" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>193100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1945400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3200</v>
-      </c>
       <c r="H62" s="3">
-        <v>9300</v>
+        <v>3300</v>
       </c>
       <c r="I62" s="3">
-        <v>12600</v>
+        <v>9500</v>
       </c>
       <c r="J62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>170800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62700</v>
+        <v>57500</v>
       </c>
       <c r="E66" s="3">
-        <v>71000</v>
+        <v>64300</v>
       </c>
       <c r="F66" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="G66" s="3">
-        <v>85500</v>
+        <v>75500</v>
       </c>
       <c r="H66" s="3">
-        <v>116000</v>
+        <v>87800</v>
       </c>
       <c r="I66" s="3">
-        <v>320000</v>
+        <v>119000</v>
       </c>
       <c r="J66" s="3">
+        <v>328400</v>
+      </c>
+      <c r="K66" s="3">
         <v>397900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>3987900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>257500</v>
+        <v>270100</v>
       </c>
       <c r="E72" s="3">
-        <v>252100</v>
+        <v>264200</v>
       </c>
       <c r="F72" s="3">
-        <v>232600</v>
+        <v>258700</v>
       </c>
       <c r="G72" s="3">
-        <v>216200</v>
+        <v>238700</v>
       </c>
       <c r="H72" s="3">
-        <v>209900</v>
+        <v>221900</v>
       </c>
       <c r="I72" s="3">
-        <v>71900</v>
+        <v>215400</v>
       </c>
       <c r="J72" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K72" s="3">
         <v>92600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>361200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72500</v>
+        <v>80200</v>
       </c>
       <c r="E76" s="3">
-        <v>67100</v>
+        <v>74400</v>
       </c>
       <c r="F76" s="3">
-        <v>47300</v>
+        <v>68800</v>
       </c>
       <c r="G76" s="3">
-        <v>7800</v>
+        <v>48500</v>
       </c>
       <c r="H76" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
-        <v>-148600</v>
-      </c>
       <c r="J76" s="3">
+        <v>-152500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-131400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>160300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E81" s="3">
-        <v>19600</v>
+        <v>5700</v>
       </c>
       <c r="F81" s="3">
-        <v>12600</v>
+        <v>20100</v>
       </c>
       <c r="G81" s="3">
-        <v>6200</v>
+        <v>12900</v>
       </c>
       <c r="H81" s="3">
-        <v>137500</v>
+        <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>-24900</v>
+        <v>141100</v>
       </c>
       <c r="J81" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-43600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-248400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-149000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
-        <v>2900</v>
-      </c>
       <c r="H83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
-        <v>2400</v>
-      </c>
       <c r="J83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>382700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3300</v>
+        <v>36900</v>
       </c>
       <c r="E89" s="3">
-        <v>20900</v>
+        <v>3400</v>
       </c>
       <c r="F89" s="3">
-        <v>-34700</v>
+        <v>21400</v>
       </c>
       <c r="G89" s="3">
-        <v>8700</v>
+        <v>-35600</v>
       </c>
       <c r="H89" s="3">
-        <v>14700</v>
+        <v>8900</v>
       </c>
       <c r="I89" s="3">
-        <v>-38500</v>
+        <v>15000</v>
       </c>
       <c r="J89" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="K89" s="3">
         <v>87800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>484200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-96300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>2000</v>
       </c>
-      <c r="E94" s="3">
-        <v>3400</v>
-      </c>
       <c r="F94" s="3">
-        <v>6400</v>
+        <v>3500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1400</v>
+        <v>6600</v>
       </c>
       <c r="H94" s="3">
-        <v>-6600</v>
+        <v>-1500</v>
       </c>
       <c r="I94" s="3">
-        <v>59600</v>
+        <v>-6800</v>
       </c>
       <c r="J94" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K94" s="3">
         <v>63500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-312300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3322,11 +3555,14 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-27600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="E100" s="3">
-        <v>-27600</v>
+        <v>-8300</v>
       </c>
       <c r="F100" s="3">
-        <v>44100</v>
+        <v>-28300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4300</v>
+        <v>45200</v>
       </c>
       <c r="H100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
-        <v>-21100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-163900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-27300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3700</v>
+        <v>26500</v>
       </c>
       <c r="E102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
-        <v>14900</v>
-      </c>
       <c r="G102" s="3">
-        <v>3000</v>
+        <v>15300</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>3100</v>
       </c>
       <c r="I102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>142600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>279600</v>
+        <v>279000</v>
       </c>
       <c r="E8" s="3">
-        <v>365100</v>
+        <v>364400</v>
       </c>
       <c r="F8" s="3">
-        <v>348800</v>
+        <v>348000</v>
       </c>
       <c r="G8" s="3">
-        <v>329800</v>
+        <v>329100</v>
       </c>
       <c r="H8" s="3">
-        <v>278800</v>
+        <v>278200</v>
       </c>
       <c r="I8" s="3">
-        <v>238300</v>
+        <v>237800</v>
       </c>
       <c r="J8" s="3">
-        <v>246900</v>
+        <v>246400</v>
       </c>
       <c r="K8" s="3">
         <v>366000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>250500</v>
+        <v>250000</v>
       </c>
       <c r="E9" s="3">
-        <v>324800</v>
+        <v>324100</v>
       </c>
       <c r="F9" s="3">
-        <v>303600</v>
+        <v>303000</v>
       </c>
       <c r="G9" s="3">
-        <v>280300</v>
+        <v>279700</v>
       </c>
       <c r="H9" s="3">
-        <v>250300</v>
+        <v>249700</v>
       </c>
       <c r="I9" s="3">
-        <v>220600</v>
+        <v>220100</v>
       </c>
       <c r="J9" s="3">
-        <v>447200</v>
+        <v>446200</v>
       </c>
       <c r="K9" s="3">
         <v>650200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29100</v>
+        <v>29000</v>
       </c>
       <c r="E10" s="3">
         <v>40300</v>
       </c>
       <c r="F10" s="3">
-        <v>45200</v>
+        <v>45100</v>
       </c>
       <c r="G10" s="3">
-        <v>49500</v>
+        <v>49400</v>
       </c>
       <c r="H10" s="3">
-        <v>28500</v>
+        <v>28400</v>
       </c>
       <c r="I10" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="J10" s="3">
-        <v>-200300</v>
+        <v>-199900</v>
       </c>
       <c r="K10" s="3">
         <v>-284200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>265400</v>
+        <v>264800</v>
       </c>
       <c r="E17" s="3">
-        <v>345700</v>
+        <v>344900</v>
       </c>
       <c r="F17" s="3">
-        <v>323100</v>
+        <v>322400</v>
       </c>
       <c r="G17" s="3">
-        <v>301400</v>
+        <v>300800</v>
       </c>
       <c r="H17" s="3">
-        <v>267400</v>
+        <v>266800</v>
       </c>
       <c r="I17" s="3">
-        <v>236600</v>
+        <v>236000</v>
       </c>
       <c r="J17" s="3">
-        <v>241500</v>
+        <v>241000</v>
       </c>
       <c r="K17" s="3">
         <v>327500</v>
@@ -1037,19 +1037,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="E18" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="F18" s="3">
         <v>25700</v>
       </c>
       <c r="G18" s="3">
-        <v>28400</v>
+        <v>28300</v>
       </c>
       <c r="H18" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
         <v>1700</v>
@@ -1104,7 +1104,7 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>147100</v>
+        <v>146800</v>
       </c>
       <c r="J20" s="3">
         <v>7900</v>
@@ -1140,7 +1140,7 @@
         <v>14600</v>
       </c>
       <c r="I21" s="3">
-        <v>152300</v>
+        <v>151900</v>
       </c>
       <c r="J21" s="3">
         <v>15700</v>
@@ -1176,10 +1176,10 @@
         <v>5200</v>
       </c>
       <c r="I22" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="K22" s="3">
         <v>26800</v>
@@ -1203,7 +1203,7 @@
         <v>8700</v>
       </c>
       <c r="F23" s="3">
-        <v>26200</v>
+        <v>26100</v>
       </c>
       <c r="G23" s="3">
         <v>16800</v>
@@ -1212,7 +1212,7 @@
         <v>6400</v>
       </c>
       <c r="I23" s="3">
-        <v>142400</v>
+        <v>142000</v>
       </c>
       <c r="J23" s="3">
         <v>-12300</v>
@@ -1239,10 +1239,10 @@
         <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>6400</v>
       </c>
       <c r="I26" s="3">
-        <v>141100</v>
+        <v>140800</v>
       </c>
       <c r="J26" s="3">
         <v>-25500</v>
@@ -1356,7 +1356,7 @@
         <v>6400</v>
       </c>
       <c r="I27" s="3">
-        <v>141100</v>
+        <v>140800</v>
       </c>
       <c r="J27" s="3">
         <v>-25500</v>
@@ -1536,7 +1536,7 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-147100</v>
+        <v>-146800</v>
       </c>
       <c r="J32" s="3">
         <v>-7900</v>
@@ -1572,7 +1572,7 @@
         <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>141100</v>
+        <v>140800</v>
       </c>
       <c r="J33" s="3">
         <v>-25500</v>
@@ -1644,7 +1644,7 @@
         <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>141100</v>
+        <v>140800</v>
       </c>
       <c r="J35" s="3">
         <v>-25500</v>
@@ -1738,19 +1738,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45800</v>
+        <v>45700</v>
       </c>
       <c r="E41" s="3">
         <v>19200</v>
       </c>
       <c r="F41" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="G41" s="3">
         <v>25800</v>
       </c>
       <c r="H41" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I41" s="3">
         <v>7500</v>
@@ -1792,7 +1792,7 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
-        <v>103700</v>
+        <v>103500</v>
       </c>
       <c r="K42" s="3">
         <v>1200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40100</v>
+        <v>40000</v>
       </c>
       <c r="E43" s="3">
-        <v>47400</v>
+        <v>47300</v>
       </c>
       <c r="F43" s="3">
-        <v>39300</v>
+        <v>39200</v>
       </c>
       <c r="G43" s="3">
-        <v>31000</v>
+        <v>30900</v>
       </c>
       <c r="H43" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="I43" s="3">
-        <v>37600</v>
+        <v>37500</v>
       </c>
       <c r="J43" s="3">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="K43" s="3">
         <v>36100</v>
@@ -1849,22 +1849,22 @@
         <v>24300</v>
       </c>
       <c r="E44" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F44" s="3">
         <v>42800</v>
       </c>
-      <c r="F44" s="3">
-        <v>42900</v>
-      </c>
       <c r="G44" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="H44" s="3">
         <v>18700</v>
       </c>
       <c r="I44" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="J44" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="K44" s="3">
         <v>39700</v>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E45" s="3">
         <v>15400</v>
@@ -1891,7 +1891,7 @@
         <v>18700</v>
       </c>
       <c r="G45" s="3">
-        <v>25000</v>
+        <v>24900</v>
       </c>
       <c r="H45" s="3">
         <v>12400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124000</v>
+        <v>123700</v>
       </c>
       <c r="E46" s="3">
-        <v>124800</v>
+        <v>124600</v>
       </c>
       <c r="F46" s="3">
-        <v>124000</v>
+        <v>123700</v>
       </c>
       <c r="G46" s="3">
-        <v>111200</v>
+        <v>110900</v>
       </c>
       <c r="H46" s="3">
-        <v>78700</v>
+        <v>78500</v>
       </c>
       <c r="I46" s="3">
-        <v>97100</v>
+        <v>96800</v>
       </c>
       <c r="J46" s="3">
-        <v>154600</v>
+        <v>154300</v>
       </c>
       <c r="K46" s="3">
         <v>116100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="E54" s="3">
-        <v>138700</v>
+        <v>138400</v>
       </c>
       <c r="F54" s="3">
-        <v>141700</v>
+        <v>141400</v>
       </c>
       <c r="G54" s="3">
-        <v>124000</v>
+        <v>123800</v>
       </c>
       <c r="H54" s="3">
-        <v>95800</v>
+        <v>95600</v>
       </c>
       <c r="I54" s="3">
-        <v>116800</v>
+        <v>116500</v>
       </c>
       <c r="J54" s="3">
-        <v>175900</v>
+        <v>175500</v>
       </c>
       <c r="K54" s="3">
         <v>266500</v>
@@ -2280,16 +2280,16 @@
         <v>10600</v>
       </c>
       <c r="F57" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="G57" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H57" s="3">
         <v>39500</v>
       </c>
       <c r="I57" s="3">
-        <v>61700</v>
+        <v>61600</v>
       </c>
       <c r="J57" s="3">
         <v>14200</v>
@@ -2313,13 +2313,13 @@
         <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F58" s="3">
         <v>4600</v>
       </c>
       <c r="G58" s="3">
-        <v>25300</v>
+        <v>25200</v>
       </c>
       <c r="H58" s="3">
         <v>3100</v>
@@ -2328,7 +2328,7 @@
         <v>3100</v>
       </c>
       <c r="J58" s="3">
-        <v>295100</v>
+        <v>294400</v>
       </c>
       <c r="K58" s="3">
         <v>94700</v>
@@ -2355,7 +2355,7 @@
         <v>12900</v>
       </c>
       <c r="G59" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H59" s="3">
         <v>4800</v>
@@ -2388,19 +2388,19 @@
         <v>24100</v>
       </c>
       <c r="F60" s="3">
-        <v>30100</v>
+        <v>30000</v>
       </c>
       <c r="G60" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="H60" s="3">
-        <v>47500</v>
+        <v>47400</v>
       </c>
       <c r="I60" s="3">
-        <v>71800</v>
+        <v>71700</v>
       </c>
       <c r="J60" s="3">
-        <v>315100</v>
+        <v>314400</v>
       </c>
       <c r="K60" s="3">
         <v>190100</v>
@@ -2418,22 +2418,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36800</v>
+        <v>36700</v>
       </c>
       <c r="E61" s="3">
         <v>39200</v>
       </c>
       <c r="F61" s="3">
-        <v>41700</v>
+        <v>41600</v>
       </c>
       <c r="G61" s="3">
         <v>37400</v>
       </c>
       <c r="H61" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="I61" s="3">
-        <v>37200</v>
+        <v>37100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>9500</v>
       </c>
       <c r="J62" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="K62" s="3">
         <v>14400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57500</v>
+        <v>57400</v>
       </c>
       <c r="E66" s="3">
-        <v>64300</v>
+        <v>64200</v>
       </c>
       <c r="F66" s="3">
-        <v>72900</v>
+        <v>72700</v>
       </c>
       <c r="G66" s="3">
-        <v>75500</v>
+        <v>75300</v>
       </c>
       <c r="H66" s="3">
-        <v>87800</v>
+        <v>87600</v>
       </c>
       <c r="I66" s="3">
-        <v>119000</v>
+        <v>118800</v>
       </c>
       <c r="J66" s="3">
-        <v>328400</v>
+        <v>327700</v>
       </c>
       <c r="K66" s="3">
         <v>397900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>270100</v>
+        <v>269500</v>
       </c>
       <c r="E72" s="3">
-        <v>264200</v>
+        <v>263700</v>
       </c>
       <c r="F72" s="3">
-        <v>258700</v>
+        <v>258200</v>
       </c>
       <c r="G72" s="3">
-        <v>238700</v>
+        <v>238200</v>
       </c>
       <c r="H72" s="3">
-        <v>221900</v>
+        <v>221400</v>
       </c>
       <c r="I72" s="3">
-        <v>215400</v>
+        <v>214900</v>
       </c>
       <c r="J72" s="3">
-        <v>73800</v>
+        <v>73600</v>
       </c>
       <c r="K72" s="3">
         <v>92600</v>
@@ -2938,16 +2938,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80200</v>
+        <v>80100</v>
       </c>
       <c r="E76" s="3">
-        <v>74400</v>
+        <v>74200</v>
       </c>
       <c r="F76" s="3">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="G76" s="3">
-        <v>48500</v>
+        <v>48400</v>
       </c>
       <c r="H76" s="3">
         <v>8000</v>
@@ -2956,7 +2956,7 @@
         <v>-2200</v>
       </c>
       <c r="J76" s="3">
-        <v>-152500</v>
+        <v>-152100</v>
       </c>
       <c r="K76" s="3">
         <v>-131400</v>
@@ -3066,7 +3066,7 @@
         <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>141100</v>
+        <v>140800</v>
       </c>
       <c r="J81" s="3">
         <v>-25500</v>
@@ -3103,7 +3103,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
         <v>4700</v>
@@ -3319,7 +3319,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="E89" s="3">
         <v>3400</v>
@@ -3328,7 +3328,7 @@
         <v>21400</v>
       </c>
       <c r="G89" s="3">
-        <v>-35600</v>
+        <v>-35500</v>
       </c>
       <c r="H89" s="3">
         <v>8900</v>
@@ -3337,7 +3337,7 @@
         <v>15000</v>
       </c>
       <c r="J89" s="3">
-        <v>-39500</v>
+        <v>-39400</v>
       </c>
       <c r="K89" s="3">
         <v>87800</v>
@@ -3488,16 +3488,16 @@
         <v>3500</v>
       </c>
       <c r="G94" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
         <v>-6800</v>
       </c>
       <c r="J94" s="3">
-        <v>61100</v>
+        <v>61000</v>
       </c>
       <c r="K94" s="3">
         <v>63500</v>
@@ -3684,7 +3684,7 @@
         <v>-28300</v>
       </c>
       <c r="G100" s="3">
-        <v>45200</v>
+        <v>45100</v>
       </c>
       <c r="H100" s="3">
         <v>-4400</v>
@@ -3750,13 +3750,13 @@
         <v>26500</v>
       </c>
       <c r="E102" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F102" s="3">
         <v>-2800</v>
       </c>
       <c r="G102" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H102" s="3">
         <v>3100</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>279000</v>
+        <v>286900</v>
       </c>
       <c r="E8" s="3">
-        <v>364400</v>
+        <v>374700</v>
       </c>
       <c r="F8" s="3">
-        <v>348000</v>
+        <v>357900</v>
       </c>
       <c r="G8" s="3">
-        <v>329100</v>
+        <v>338400</v>
       </c>
       <c r="H8" s="3">
-        <v>278200</v>
+        <v>286100</v>
       </c>
       <c r="I8" s="3">
-        <v>237800</v>
+        <v>244500</v>
       </c>
       <c r="J8" s="3">
-        <v>246400</v>
+        <v>253400</v>
       </c>
       <c r="K8" s="3">
         <v>366000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>250000</v>
+        <v>257100</v>
       </c>
       <c r="E9" s="3">
-        <v>324100</v>
+        <v>333300</v>
       </c>
       <c r="F9" s="3">
-        <v>303000</v>
+        <v>311600</v>
       </c>
       <c r="G9" s="3">
-        <v>279700</v>
+        <v>287600</v>
       </c>
       <c r="H9" s="3">
-        <v>249700</v>
+        <v>256800</v>
       </c>
       <c r="I9" s="3">
-        <v>220100</v>
+        <v>226400</v>
       </c>
       <c r="J9" s="3">
-        <v>446200</v>
+        <v>458900</v>
       </c>
       <c r="K9" s="3">
         <v>650200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="E10" s="3">
-        <v>40300</v>
+        <v>41400</v>
       </c>
       <c r="F10" s="3">
-        <v>45100</v>
+        <v>46300</v>
       </c>
       <c r="G10" s="3">
-        <v>49400</v>
+        <v>50800</v>
       </c>
       <c r="H10" s="3">
-        <v>28400</v>
+        <v>29200</v>
       </c>
       <c r="I10" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="J10" s="3">
-        <v>-199900</v>
+        <v>-205600</v>
       </c>
       <c r="K10" s="3">
         <v>-284200</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>264800</v>
+        <v>272300</v>
       </c>
       <c r="E17" s="3">
-        <v>344900</v>
+        <v>354700</v>
       </c>
       <c r="F17" s="3">
-        <v>322400</v>
+        <v>331500</v>
       </c>
       <c r="G17" s="3">
-        <v>300800</v>
+        <v>309300</v>
       </c>
       <c r="H17" s="3">
-        <v>266800</v>
+        <v>274400</v>
       </c>
       <c r="I17" s="3">
-        <v>236000</v>
+        <v>242700</v>
       </c>
       <c r="J17" s="3">
-        <v>241000</v>
+        <v>247800</v>
       </c>
       <c r="K17" s="3">
         <v>327500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="F18" s="3">
-        <v>25700</v>
+        <v>26400</v>
       </c>
       <c r="G18" s="3">
-        <v>28300</v>
+        <v>29100</v>
       </c>
       <c r="H18" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="I18" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J18" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K18" s="3">
         <v>38500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>146800</v>
+        <v>150900</v>
       </c>
       <c r="J20" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="K20" s="3">
         <v>-4500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>25700</v>
+      </c>
+      <c r="H21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
-        <v>18800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>36300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>25100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>14600</v>
-      </c>
       <c r="I21" s="3">
-        <v>151900</v>
+        <v>156200</v>
       </c>
       <c r="J21" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="K21" s="3">
         <v>38200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
-        <v>5200</v>
-      </c>
       <c r="G22" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H22" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="K22" s="3">
         <v>26800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="E23" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F23" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="G23" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="H23" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I23" s="3">
-        <v>142000</v>
+        <v>146100</v>
       </c>
       <c r="J23" s="3">
-        <v>-12300</v>
+        <v>-12600</v>
       </c>
       <c r="K23" s="3">
         <v>7200</v>
@@ -1236,22 +1236,22 @@
         <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F24" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J24" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="K24" s="3">
         <v>25300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5900</v>
       </c>
-      <c r="E26" s="3">
-        <v>5700</v>
-      </c>
       <c r="F26" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="G26" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="H26" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I26" s="3">
-        <v>140800</v>
+        <v>144800</v>
       </c>
       <c r="J26" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="K26" s="3">
         <v>-18000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5900</v>
       </c>
-      <c r="E27" s="3">
-        <v>5700</v>
-      </c>
       <c r="F27" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="G27" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="H27" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I27" s="3">
-        <v>140800</v>
+        <v>144800</v>
       </c>
       <c r="J27" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="K27" s="3">
         <v>33100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="G32" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-146800</v>
+        <v>-150900</v>
       </c>
       <c r="J32" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="K32" s="3">
         <v>4500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5900</v>
       </c>
-      <c r="E33" s="3">
-        <v>5700</v>
-      </c>
       <c r="F33" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="G33" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="H33" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I33" s="3">
-        <v>140800</v>
+        <v>144800</v>
       </c>
       <c r="J33" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="K33" s="3">
         <v>-43600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5900</v>
       </c>
-      <c r="E35" s="3">
-        <v>5700</v>
-      </c>
       <c r="F35" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="G35" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="H35" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I35" s="3">
-        <v>140800</v>
+        <v>144800</v>
       </c>
       <c r="J35" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="K35" s="3">
         <v>-43600</v>
@@ -1738,22 +1738,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45700</v>
+        <v>47000</v>
       </c>
       <c r="E41" s="3">
-        <v>19200</v>
+        <v>19700</v>
       </c>
       <c r="F41" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="G41" s="3">
-        <v>25800</v>
+        <v>26500</v>
       </c>
       <c r="H41" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="I41" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
@@ -1792,7 +1792,7 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
-        <v>103500</v>
+        <v>106400</v>
       </c>
       <c r="K42" s="3">
         <v>1200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40000</v>
+        <v>41200</v>
       </c>
       <c r="E43" s="3">
-        <v>47300</v>
+        <v>48700</v>
       </c>
       <c r="F43" s="3">
-        <v>39200</v>
+        <v>40300</v>
       </c>
       <c r="G43" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="H43" s="3">
-        <v>36900</v>
+        <v>38000</v>
       </c>
       <c r="I43" s="3">
-        <v>37500</v>
+        <v>38600</v>
       </c>
       <c r="J43" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="K43" s="3">
         <v>36100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="E44" s="3">
-        <v>42700</v>
+        <v>43900</v>
       </c>
       <c r="F44" s="3">
-        <v>42800</v>
+        <v>44000</v>
       </c>
       <c r="G44" s="3">
-        <v>29300</v>
+        <v>30100</v>
       </c>
       <c r="H44" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="I44" s="3">
-        <v>40600</v>
+        <v>41700</v>
       </c>
       <c r="J44" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="K44" s="3">
         <v>39700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="E45" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="F45" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="G45" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="H45" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="I45" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="J45" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K45" s="3">
         <v>38800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>123700</v>
+        <v>127200</v>
       </c>
       <c r="E46" s="3">
-        <v>124600</v>
+        <v>128100</v>
       </c>
       <c r="F46" s="3">
-        <v>123700</v>
+        <v>127200</v>
       </c>
       <c r="G46" s="3">
-        <v>110900</v>
+        <v>114100</v>
       </c>
       <c r="H46" s="3">
-        <v>78500</v>
+        <v>80700</v>
       </c>
       <c r="I46" s="3">
-        <v>96800</v>
+        <v>99600</v>
       </c>
       <c r="J46" s="3">
-        <v>154300</v>
+        <v>158700</v>
       </c>
       <c r="K46" s="3">
         <v>116100</v>
@@ -1966,7 +1966,7 @@
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I47" s="3">
         <v>2200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J48" s="3">
         <v>5400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5200</v>
       </c>
       <c r="K48" s="3">
         <v>4800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G49" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H49" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I49" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="J49" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="K49" s="3">
         <v>16500</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>14100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>137500</v>
+        <v>141400</v>
       </c>
       <c r="E54" s="3">
-        <v>138400</v>
+        <v>142300</v>
       </c>
       <c r="F54" s="3">
-        <v>141400</v>
+        <v>145400</v>
       </c>
       <c r="G54" s="3">
-        <v>123800</v>
+        <v>127300</v>
       </c>
       <c r="H54" s="3">
-        <v>95600</v>
+        <v>98300</v>
       </c>
       <c r="I54" s="3">
-        <v>116500</v>
+        <v>119800</v>
       </c>
       <c r="J54" s="3">
-        <v>175500</v>
+        <v>180500</v>
       </c>
       <c r="K54" s="3">
         <v>266500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="F57" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G57" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="H57" s="3">
-        <v>39500</v>
+        <v>40600</v>
       </c>
       <c r="I57" s="3">
-        <v>61600</v>
+        <v>63300</v>
       </c>
       <c r="J57" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="K57" s="3">
         <v>84800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G58" s="3">
-        <v>25200</v>
+        <v>25900</v>
       </c>
       <c r="H58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J58" s="3">
-        <v>294400</v>
+        <v>302800</v>
       </c>
       <c r="K58" s="3">
         <v>94700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="E59" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="F59" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="G59" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H59" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I59" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="E60" s="3">
-        <v>24100</v>
+        <v>24800</v>
       </c>
       <c r="F60" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="G60" s="3">
-        <v>36900</v>
+        <v>38000</v>
       </c>
       <c r="H60" s="3">
-        <v>47400</v>
+        <v>48700</v>
       </c>
       <c r="I60" s="3">
-        <v>71700</v>
+        <v>73700</v>
       </c>
       <c r="J60" s="3">
-        <v>314400</v>
+        <v>323400</v>
       </c>
       <c r="K60" s="3">
         <v>190100</v>
@@ -2418,22 +2418,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36700</v>
+        <v>37800</v>
       </c>
       <c r="E61" s="3">
-        <v>39200</v>
+        <v>40300</v>
       </c>
       <c r="F61" s="3">
-        <v>41600</v>
+        <v>42700</v>
       </c>
       <c r="G61" s="3">
-        <v>37400</v>
+        <v>38400</v>
       </c>
       <c r="H61" s="3">
-        <v>36900</v>
+        <v>38000</v>
       </c>
       <c r="I61" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -2466,13 +2466,13 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I62" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="J62" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="K62" s="3">
         <v>14400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57400</v>
+        <v>59000</v>
       </c>
       <c r="E66" s="3">
-        <v>64200</v>
+        <v>66000</v>
       </c>
       <c r="F66" s="3">
-        <v>72700</v>
+        <v>74800</v>
       </c>
       <c r="G66" s="3">
-        <v>75300</v>
+        <v>77500</v>
       </c>
       <c r="H66" s="3">
-        <v>87600</v>
+        <v>90100</v>
       </c>
       <c r="I66" s="3">
-        <v>118800</v>
+        <v>122100</v>
       </c>
       <c r="J66" s="3">
-        <v>327700</v>
+        <v>337000</v>
       </c>
       <c r="K66" s="3">
         <v>397900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>269500</v>
+        <v>277200</v>
       </c>
       <c r="E72" s="3">
-        <v>263700</v>
+        <v>271200</v>
       </c>
       <c r="F72" s="3">
-        <v>258200</v>
+        <v>265500</v>
       </c>
       <c r="G72" s="3">
-        <v>238200</v>
+        <v>245000</v>
       </c>
       <c r="H72" s="3">
-        <v>221400</v>
+        <v>227700</v>
       </c>
       <c r="I72" s="3">
-        <v>214900</v>
+        <v>221000</v>
       </c>
       <c r="J72" s="3">
-        <v>73600</v>
+        <v>75700</v>
       </c>
       <c r="K72" s="3">
         <v>92600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80100</v>
+        <v>82300</v>
       </c>
       <c r="E76" s="3">
-        <v>74200</v>
+        <v>76300</v>
       </c>
       <c r="F76" s="3">
-        <v>68700</v>
+        <v>70600</v>
       </c>
       <c r="G76" s="3">
-        <v>48400</v>
+        <v>49800</v>
       </c>
       <c r="H76" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I76" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J76" s="3">
-        <v>-152100</v>
+        <v>-156500</v>
       </c>
       <c r="K76" s="3">
         <v>-131400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5900</v>
       </c>
-      <c r="E81" s="3">
-        <v>5700</v>
-      </c>
       <c r="F81" s="3">
-        <v>20100</v>
+        <v>20600</v>
       </c>
       <c r="G81" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="H81" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I81" s="3">
-        <v>140800</v>
+        <v>144800</v>
       </c>
       <c r="J81" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="K81" s="3">
         <v>-43600</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3">
         <v>2500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36800</v>
+        <v>37800</v>
       </c>
       <c r="E89" s="3">
         <v>3400</v>
       </c>
       <c r="F89" s="3">
-        <v>21400</v>
+        <v>22000</v>
       </c>
       <c r="G89" s="3">
-        <v>-35500</v>
+        <v>-36500</v>
       </c>
       <c r="H89" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I89" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="J89" s="3">
-        <v>-39400</v>
+        <v>-40500</v>
       </c>
       <c r="K89" s="3">
         <v>87800</v>
@@ -3377,7 +3377,7 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
@@ -3386,7 +3386,7 @@
         <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3482,22 +3482,22 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F94" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G94" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="J94" s="3">
-        <v>61000</v>
+        <v>62700</v>
       </c>
       <c r="K94" s="3">
         <v>63500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E100" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="F100" s="3">
-        <v>-28300</v>
+        <v>-29100</v>
       </c>
       <c r="G100" s="3">
-        <v>45100</v>
+        <v>46400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J100" s="3">
-        <v>-21600</v>
+        <v>-22200</v>
       </c>
       <c r="K100" s="3">
         <v>-163900</v>
@@ -3714,7 +3714,7 @@
         <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26500</v>
+        <v>27200</v>
       </c>
       <c r="E102" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G102" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="H102" s="3">
         <v>3100</v>
       </c>
       <c r="I102" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>286900</v>
+        <v>278700</v>
       </c>
       <c r="E8" s="3">
-        <v>374700</v>
+        <v>363900</v>
       </c>
       <c r="F8" s="3">
-        <v>357900</v>
+        <v>347600</v>
       </c>
       <c r="G8" s="3">
-        <v>338400</v>
+        <v>328700</v>
       </c>
       <c r="H8" s="3">
-        <v>286100</v>
+        <v>277800</v>
       </c>
       <c r="I8" s="3">
-        <v>244500</v>
+        <v>237500</v>
       </c>
       <c r="J8" s="3">
-        <v>253400</v>
+        <v>246100</v>
       </c>
       <c r="K8" s="3">
         <v>366000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>257100</v>
+        <v>249700</v>
       </c>
       <c r="E9" s="3">
-        <v>333300</v>
+        <v>323700</v>
       </c>
       <c r="F9" s="3">
-        <v>311600</v>
+        <v>302600</v>
       </c>
       <c r="G9" s="3">
-        <v>287600</v>
+        <v>279300</v>
       </c>
       <c r="H9" s="3">
-        <v>256800</v>
+        <v>249400</v>
       </c>
       <c r="I9" s="3">
-        <v>226400</v>
+        <v>219900</v>
       </c>
       <c r="J9" s="3">
-        <v>458900</v>
+        <v>445700</v>
       </c>
       <c r="K9" s="3">
         <v>650200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29900</v>
+        <v>29000</v>
       </c>
       <c r="E10" s="3">
-        <v>41400</v>
+        <v>40200</v>
       </c>
       <c r="F10" s="3">
-        <v>46300</v>
+        <v>45000</v>
       </c>
       <c r="G10" s="3">
-        <v>50800</v>
+        <v>49300</v>
       </c>
       <c r="H10" s="3">
-        <v>29200</v>
+        <v>28400</v>
       </c>
       <c r="I10" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="J10" s="3">
-        <v>-205600</v>
+        <v>-199600</v>
       </c>
       <c r="K10" s="3">
         <v>-284200</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>272300</v>
+        <v>264500</v>
       </c>
       <c r="E17" s="3">
-        <v>354700</v>
+        <v>344500</v>
       </c>
       <c r="F17" s="3">
-        <v>331500</v>
+        <v>322000</v>
       </c>
       <c r="G17" s="3">
-        <v>309300</v>
+        <v>300400</v>
       </c>
       <c r="H17" s="3">
-        <v>274400</v>
+        <v>266500</v>
       </c>
       <c r="I17" s="3">
-        <v>242700</v>
+        <v>235800</v>
       </c>
       <c r="J17" s="3">
-        <v>247800</v>
+        <v>240700</v>
       </c>
       <c r="K17" s="3">
         <v>327500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="E18" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="F18" s="3">
-        <v>26400</v>
+        <v>25600</v>
       </c>
       <c r="G18" s="3">
-        <v>29100</v>
+        <v>28300</v>
       </c>
       <c r="H18" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J18" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K18" s="3">
         <v>38500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>150900</v>
+        <v>146600</v>
       </c>
       <c r="J20" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="K20" s="3">
         <v>-4500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="E21" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="F21" s="3">
-        <v>37200</v>
+        <v>36200</v>
       </c>
       <c r="G21" s="3">
-        <v>25700</v>
+        <v>25000</v>
       </c>
       <c r="H21" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="I21" s="3">
-        <v>156200</v>
+        <v>151700</v>
       </c>
       <c r="J21" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="K21" s="3">
         <v>38200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E22" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I22" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="K22" s="3">
         <v>26800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E23" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F23" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="G23" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="H23" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I23" s="3">
-        <v>146100</v>
+        <v>141900</v>
       </c>
       <c r="J23" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="K23" s="3">
         <v>7200</v>
@@ -1236,22 +1236,22 @@
         <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J24" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="K24" s="3">
         <v>25300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E26" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F26" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="G26" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H26" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I26" s="3">
-        <v>144800</v>
+        <v>140600</v>
       </c>
       <c r="J26" s="3">
-        <v>-26200</v>
+        <v>-25500</v>
       </c>
       <c r="K26" s="3">
         <v>-18000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E27" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F27" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="G27" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H27" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I27" s="3">
-        <v>144800</v>
+        <v>140600</v>
       </c>
       <c r="J27" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="K27" s="3">
         <v>33100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-150900</v>
+        <v>-146600</v>
       </c>
       <c r="J32" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="K32" s="3">
         <v>4500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E33" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F33" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="G33" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H33" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>144800</v>
+        <v>140600</v>
       </c>
       <c r="J33" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="K33" s="3">
         <v>-43600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E35" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F35" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="G35" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H35" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>144800</v>
+        <v>140600</v>
       </c>
       <c r="J35" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="K35" s="3">
         <v>-43600</v>
@@ -1738,22 +1738,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47000</v>
+        <v>45600</v>
       </c>
       <c r="E41" s="3">
-        <v>19700</v>
+        <v>19200</v>
       </c>
       <c r="F41" s="3">
-        <v>23600</v>
+        <v>22900</v>
       </c>
       <c r="G41" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="H41" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="I41" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
@@ -1792,7 +1792,7 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
-        <v>106400</v>
+        <v>103400</v>
       </c>
       <c r="K42" s="3">
         <v>1200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41200</v>
+        <v>40000</v>
       </c>
       <c r="E43" s="3">
-        <v>48700</v>
+        <v>47300</v>
       </c>
       <c r="F43" s="3">
-        <v>40300</v>
+        <v>39200</v>
       </c>
       <c r="G43" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="H43" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="I43" s="3">
-        <v>38600</v>
+        <v>37500</v>
       </c>
       <c r="J43" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="K43" s="3">
         <v>36100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="E44" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="F44" s="3">
-        <v>44000</v>
+        <v>42800</v>
       </c>
       <c r="G44" s="3">
-        <v>30100</v>
+        <v>29300</v>
       </c>
       <c r="H44" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="I44" s="3">
-        <v>41700</v>
+        <v>40500</v>
       </c>
       <c r="J44" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="K44" s="3">
         <v>39700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="E45" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="G45" s="3">
-        <v>25600</v>
+        <v>24900</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="I45" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="J45" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K45" s="3">
         <v>38800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>127200</v>
+        <v>123600</v>
       </c>
       <c r="E46" s="3">
-        <v>128100</v>
+        <v>124400</v>
       </c>
       <c r="F46" s="3">
-        <v>127200</v>
+        <v>123600</v>
       </c>
       <c r="G46" s="3">
-        <v>114100</v>
+        <v>110800</v>
       </c>
       <c r="H46" s="3">
-        <v>80700</v>
+        <v>78400</v>
       </c>
       <c r="I46" s="3">
-        <v>99600</v>
+        <v>96700</v>
       </c>
       <c r="J46" s="3">
-        <v>158700</v>
+        <v>154100</v>
       </c>
       <c r="K46" s="3">
         <v>116100</v>
@@ -1966,10 +1966,10 @@
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="E48" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="F48" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
-        <v>5800</v>
-      </c>
       <c r="J48" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K48" s="3">
         <v>4800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G49" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="H49" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="I49" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="J49" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="K49" s="3">
         <v>16500</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K52" s="3">
         <v>14100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141400</v>
+        <v>137300</v>
       </c>
       <c r="E54" s="3">
-        <v>142300</v>
+        <v>138200</v>
       </c>
       <c r="F54" s="3">
-        <v>145400</v>
+        <v>141300</v>
       </c>
       <c r="G54" s="3">
-        <v>127300</v>
+        <v>123600</v>
       </c>
       <c r="H54" s="3">
-        <v>98300</v>
+        <v>95500</v>
       </c>
       <c r="I54" s="3">
-        <v>119800</v>
+        <v>116400</v>
       </c>
       <c r="J54" s="3">
-        <v>180500</v>
+        <v>175300</v>
       </c>
       <c r="K54" s="3">
         <v>266500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="F57" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G57" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="H57" s="3">
-        <v>40600</v>
+        <v>39400</v>
       </c>
       <c r="I57" s="3">
-        <v>63300</v>
+        <v>61500</v>
       </c>
       <c r="J57" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="K57" s="3">
         <v>84800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F58" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G58" s="3">
-        <v>25900</v>
+        <v>25200</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J58" s="3">
-        <v>302800</v>
+        <v>294100</v>
       </c>
       <c r="K58" s="3">
         <v>94700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="E59" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="F59" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G59" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H59" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I59" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J59" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="K59" s="3">
         <v>10500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="E60" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="F60" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="G60" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="H60" s="3">
-        <v>48700</v>
+        <v>47300</v>
       </c>
       <c r="I60" s="3">
-        <v>73700</v>
+        <v>71600</v>
       </c>
       <c r="J60" s="3">
-        <v>323400</v>
+        <v>314100</v>
       </c>
       <c r="K60" s="3">
         <v>190100</v>
@@ -2418,22 +2418,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="E61" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="F61" s="3">
-        <v>42700</v>
+        <v>41500</v>
       </c>
       <c r="G61" s="3">
-        <v>38400</v>
+        <v>37300</v>
       </c>
       <c r="H61" s="3">
-        <v>38000</v>
+        <v>36900</v>
       </c>
       <c r="I61" s="3">
-        <v>38200</v>
+        <v>37100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -2466,13 +2466,13 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I62" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J62" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="K62" s="3">
         <v>14400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59000</v>
+        <v>57300</v>
       </c>
       <c r="E66" s="3">
-        <v>66000</v>
+        <v>64100</v>
       </c>
       <c r="F66" s="3">
-        <v>74800</v>
+        <v>72600</v>
       </c>
       <c r="G66" s="3">
-        <v>77500</v>
+        <v>75200</v>
       </c>
       <c r="H66" s="3">
-        <v>90100</v>
+        <v>87500</v>
       </c>
       <c r="I66" s="3">
-        <v>122100</v>
+        <v>118600</v>
       </c>
       <c r="J66" s="3">
-        <v>337000</v>
+        <v>327300</v>
       </c>
       <c r="K66" s="3">
         <v>397900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>277200</v>
+        <v>269200</v>
       </c>
       <c r="E72" s="3">
-        <v>271200</v>
+        <v>263300</v>
       </c>
       <c r="F72" s="3">
-        <v>265500</v>
+        <v>257800</v>
       </c>
       <c r="G72" s="3">
-        <v>245000</v>
+        <v>237900</v>
       </c>
       <c r="H72" s="3">
-        <v>227700</v>
+        <v>221100</v>
       </c>
       <c r="I72" s="3">
-        <v>221000</v>
+        <v>214600</v>
       </c>
       <c r="J72" s="3">
-        <v>75700</v>
+        <v>73500</v>
       </c>
       <c r="K72" s="3">
         <v>92600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82300</v>
+        <v>80000</v>
       </c>
       <c r="E76" s="3">
-        <v>76300</v>
+        <v>74100</v>
       </c>
       <c r="F76" s="3">
-        <v>70600</v>
+        <v>68600</v>
       </c>
       <c r="G76" s="3">
-        <v>49800</v>
+        <v>48400</v>
       </c>
       <c r="H76" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="I76" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J76" s="3">
-        <v>-156500</v>
+        <v>-152000</v>
       </c>
       <c r="K76" s="3">
         <v>-131400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E81" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F81" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="G81" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H81" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>144800</v>
+        <v>140600</v>
       </c>
       <c r="J81" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="K81" s="3">
         <v>-43600</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3500</v>
       </c>
       <c r="J83" s="3">
         <v>2500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="E89" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F89" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="G89" s="3">
-        <v>-36500</v>
+        <v>-35500</v>
       </c>
       <c r="H89" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="I89" s="3">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="J89" s="3">
-        <v>-40500</v>
+        <v>-39400</v>
       </c>
       <c r="K89" s="3">
         <v>87800</v>
@@ -3377,7 +3377,7 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
@@ -3386,7 +3386,7 @@
         <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3482,22 +3482,22 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F94" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G94" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="J94" s="3">
-        <v>62700</v>
+        <v>60900</v>
       </c>
       <c r="K94" s="3">
         <v>63500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="E100" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="F100" s="3">
-        <v>-29100</v>
+        <v>-28200</v>
       </c>
       <c r="G100" s="3">
-        <v>46400</v>
+        <v>45100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J100" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="K100" s="3">
         <v>-163900</v>
@@ -3714,7 +3714,7 @@
         <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27200</v>
+        <v>26400</v>
       </c>
       <c r="E102" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G102" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="H102" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I102" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SCIXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>278700</v>
+        <v>265900</v>
       </c>
       <c r="E8" s="3">
-        <v>363900</v>
+        <v>263300</v>
       </c>
       <c r="F8" s="3">
-        <v>347600</v>
+        <v>343800</v>
       </c>
       <c r="G8" s="3">
-        <v>328700</v>
+        <v>328400</v>
       </c>
       <c r="H8" s="3">
-        <v>277800</v>
+        <v>310500</v>
       </c>
       <c r="I8" s="3">
-        <v>237500</v>
+        <v>262500</v>
       </c>
       <c r="J8" s="3">
+        <v>224400</v>
+      </c>
+      <c r="K8" s="3">
         <v>246100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>366000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>302900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2134400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>249700</v>
+        <v>226200</v>
       </c>
       <c r="E9" s="3">
-        <v>323700</v>
+        <v>235900</v>
       </c>
       <c r="F9" s="3">
-        <v>302600</v>
+        <v>305800</v>
       </c>
       <c r="G9" s="3">
-        <v>279300</v>
+        <v>285900</v>
       </c>
       <c r="H9" s="3">
-        <v>249400</v>
+        <v>263900</v>
       </c>
       <c r="I9" s="3">
-        <v>219900</v>
+        <v>235700</v>
       </c>
       <c r="J9" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K9" s="3">
         <v>445700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>650200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>495000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1707800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29000</v>
+        <v>39700</v>
       </c>
       <c r="E10" s="3">
-        <v>40200</v>
+        <v>27400</v>
       </c>
       <c r="F10" s="3">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="G10" s="3">
-        <v>49300</v>
+        <v>42500</v>
       </c>
       <c r="H10" s="3">
-        <v>28400</v>
+        <v>46600</v>
       </c>
       <c r="I10" s="3">
-        <v>17600</v>
+        <v>26800</v>
       </c>
       <c r="J10" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-199600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-284200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-192000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>426500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,23 +925,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -934,20 +953,23 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>329100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,15 +997,18 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>8800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>264500</v>
+        <v>244200</v>
       </c>
       <c r="E17" s="3">
-        <v>344500</v>
+        <v>249900</v>
       </c>
       <c r="F17" s="3">
-        <v>322000</v>
+        <v>325500</v>
       </c>
       <c r="G17" s="3">
-        <v>300400</v>
+        <v>304200</v>
       </c>
       <c r="H17" s="3">
-        <v>266500</v>
+        <v>283800</v>
       </c>
       <c r="I17" s="3">
-        <v>235800</v>
+        <v>251800</v>
       </c>
       <c r="J17" s="3">
+        <v>222800</v>
+      </c>
+      <c r="K17" s="3">
         <v>240700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>327500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>273700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2274500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14200</v>
+        <v>21700</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>13400</v>
       </c>
       <c r="F18" s="3">
-        <v>25600</v>
+        <v>18300</v>
       </c>
       <c r="G18" s="3">
-        <v>28300</v>
+        <v>24200</v>
       </c>
       <c r="H18" s="3">
-        <v>11300</v>
+        <v>26700</v>
       </c>
       <c r="I18" s="3">
-        <v>1700</v>
+        <v>10700</v>
       </c>
       <c r="J18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-140200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-7200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5400</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>-5100</v>
       </c>
       <c r="G20" s="3">
-        <v>-6300</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>146600</v>
-      </c>
       <c r="J20" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-142900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14900</v>
+        <v>17700</v>
       </c>
       <c r="E21" s="3">
-        <v>18700</v>
+        <v>14100</v>
       </c>
       <c r="F21" s="3">
-        <v>36200</v>
+        <v>17700</v>
       </c>
       <c r="G21" s="3">
-        <v>25000</v>
+        <v>34200</v>
       </c>
       <c r="H21" s="3">
-        <v>14600</v>
+        <v>23700</v>
       </c>
       <c r="I21" s="3">
-        <v>151700</v>
+        <v>13800</v>
       </c>
       <c r="J21" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K21" s="3">
         <v>15700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>98800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>4900</v>
       </c>
       <c r="J22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K22" s="3">
         <v>25500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7100</v>
+        <v>10400</v>
       </c>
       <c r="E23" s="3">
-        <v>8700</v>
+        <v>6700</v>
       </c>
       <c r="F23" s="3">
-        <v>26100</v>
+        <v>8200</v>
       </c>
       <c r="G23" s="3">
-        <v>16800</v>
+        <v>24600</v>
       </c>
       <c r="H23" s="3">
-        <v>6400</v>
+        <v>15900</v>
       </c>
       <c r="I23" s="3">
-        <v>141900</v>
+        <v>6000</v>
       </c>
       <c r="J23" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-283100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="E26" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="3">
-        <v>20000</v>
+        <v>5400</v>
       </c>
       <c r="G26" s="3">
-        <v>12800</v>
+        <v>18900</v>
       </c>
       <c r="H26" s="3">
-        <v>6400</v>
+        <v>12100</v>
       </c>
       <c r="I26" s="3">
-        <v>140600</v>
+        <v>6000</v>
       </c>
       <c r="J26" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-334900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="E27" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F27" s="3">
-        <v>20000</v>
+        <v>5400</v>
       </c>
       <c r="G27" s="3">
-        <v>12800</v>
+        <v>18900</v>
       </c>
       <c r="H27" s="3">
-        <v>6400</v>
+        <v>12100</v>
       </c>
       <c r="I27" s="3">
-        <v>140600</v>
+        <v>6000</v>
       </c>
       <c r="J27" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>567000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-149000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,26 +1463,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1434,17 +1494,20 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-76700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-815400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>7200</v>
       </c>
       <c r="E32" s="3">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>5100</v>
       </c>
       <c r="G32" s="3">
-        <v>6300</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-146600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>142900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="E33" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F33" s="3">
-        <v>20000</v>
+        <v>5400</v>
       </c>
       <c r="G33" s="3">
-        <v>12800</v>
+        <v>18900</v>
       </c>
       <c r="H33" s="3">
-        <v>6400</v>
+        <v>12100</v>
       </c>
       <c r="I33" s="3">
-        <v>140600</v>
+        <v>6000</v>
       </c>
       <c r="J33" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-248400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-149000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="E35" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F35" s="3">
-        <v>20000</v>
+        <v>5400</v>
       </c>
       <c r="G35" s="3">
-        <v>12800</v>
+        <v>18900</v>
       </c>
       <c r="H35" s="3">
-        <v>6400</v>
+        <v>12100</v>
       </c>
       <c r="I35" s="3">
-        <v>140600</v>
+        <v>6000</v>
       </c>
       <c r="J35" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-248400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-149000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,49 +1817,53 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45600</v>
+        <v>54800</v>
       </c>
       <c r="E41" s="3">
-        <v>19200</v>
+        <v>43100</v>
       </c>
       <c r="F41" s="3">
-        <v>22900</v>
+        <v>18100</v>
       </c>
       <c r="G41" s="3">
-        <v>25700</v>
+        <v>21700</v>
       </c>
       <c r="H41" s="3">
-        <v>10500</v>
+        <v>24300</v>
       </c>
       <c r="I41" s="3">
-        <v>7500</v>
+        <v>9900</v>
       </c>
       <c r="J41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>294100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>2100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -1785,279 +1874,303 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>700</v>
+      </c>
+      <c r="K42" s="3">
         <v>103400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>37500</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40000</v>
+        <v>34700</v>
       </c>
       <c r="E43" s="3">
-        <v>47300</v>
+        <v>37800</v>
       </c>
       <c r="F43" s="3">
-        <v>39200</v>
+        <v>44700</v>
       </c>
       <c r="G43" s="3">
-        <v>30900</v>
+        <v>37000</v>
       </c>
       <c r="H43" s="3">
-        <v>36900</v>
+        <v>29200</v>
       </c>
       <c r="I43" s="3">
-        <v>37500</v>
+        <v>34800</v>
       </c>
       <c r="J43" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K43" s="3">
         <v>24300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>477600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24200</v>
+        <v>21600</v>
       </c>
       <c r="E44" s="3">
-        <v>42600</v>
+        <v>22900</v>
       </c>
       <c r="F44" s="3">
-        <v>42800</v>
+        <v>40300</v>
       </c>
       <c r="G44" s="3">
-        <v>29300</v>
+        <v>40400</v>
       </c>
       <c r="H44" s="3">
-        <v>18600</v>
+        <v>27700</v>
       </c>
       <c r="I44" s="3">
-        <v>40500</v>
+        <v>17600</v>
       </c>
       <c r="J44" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K44" s="3">
         <v>20600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>59300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13700</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
-        <v>15400</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3">
-        <v>18700</v>
+        <v>14500</v>
       </c>
       <c r="G45" s="3">
-        <v>24900</v>
+        <v>17700</v>
       </c>
       <c r="H45" s="3">
-        <v>12400</v>
+        <v>23500</v>
       </c>
       <c r="I45" s="3">
-        <v>10500</v>
+        <v>11700</v>
       </c>
       <c r="J45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>123600</v>
+        <v>124500</v>
       </c>
       <c r="E46" s="3">
-        <v>124400</v>
+        <v>116700</v>
       </c>
       <c r="F46" s="3">
-        <v>123600</v>
+        <v>117600</v>
       </c>
       <c r="G46" s="3">
-        <v>110800</v>
+        <v>116700</v>
       </c>
       <c r="H46" s="3">
-        <v>78400</v>
+        <v>104700</v>
       </c>
       <c r="I46" s="3">
-        <v>96700</v>
+        <v>74100</v>
       </c>
       <c r="J46" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K46" s="3">
         <v>154100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>116100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>873800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
+        <v>300</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
-        <v>2100</v>
-      </c>
       <c r="I47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>114900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="3">
         <v>236400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8900</v>
+        <v>13900</v>
       </c>
       <c r="E48" s="3">
-        <v>10600</v>
+        <v>8400</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G48" s="3">
-        <v>5400</v>
+        <v>11800</v>
       </c>
       <c r="H48" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="I48" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="J48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>566100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="G49" s="3">
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
-        <v>9500</v>
+        <v>6800</v>
       </c>
       <c r="I49" s="3">
-        <v>11900</v>
+        <v>9000</v>
       </c>
       <c r="J49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K49" s="3">
         <v>14800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>2394500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,17 +2243,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2148,24 +2267,27 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>77300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>137300</v>
+        <v>141600</v>
       </c>
       <c r="E54" s="3">
-        <v>138200</v>
+        <v>129700</v>
       </c>
       <c r="F54" s="3">
-        <v>141300</v>
+        <v>130600</v>
       </c>
       <c r="G54" s="3">
-        <v>123600</v>
+        <v>133500</v>
       </c>
       <c r="H54" s="3">
-        <v>95500</v>
+        <v>116800</v>
       </c>
       <c r="I54" s="3">
-        <v>116400</v>
+        <v>90200</v>
       </c>
       <c r="J54" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K54" s="3">
         <v>175300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>266500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>4148200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="E57" s="3">
-        <v>10600</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G57" s="3">
-        <v>7200</v>
+        <v>11800</v>
       </c>
       <c r="H57" s="3">
-        <v>39400</v>
+        <v>6800</v>
       </c>
       <c r="I57" s="3">
-        <v>61500</v>
+        <v>37200</v>
       </c>
       <c r="J57" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>315600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="E58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G58" s="3">
-        <v>25200</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3">
-        <v>3100</v>
+        <v>23800</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="J58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K58" s="3">
         <v>294100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>94700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>339900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="E59" s="3">
         <v>8800</v>
       </c>
       <c r="F59" s="3">
-        <v>12800</v>
+        <v>8300</v>
       </c>
       <c r="G59" s="3">
-        <v>4400</v>
+        <v>12100</v>
       </c>
       <c r="H59" s="3">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="I59" s="3">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="J59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>102900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="E60" s="3">
-        <v>24000</v>
+        <v>18900</v>
       </c>
       <c r="F60" s="3">
-        <v>30000</v>
+        <v>22700</v>
       </c>
       <c r="G60" s="3">
-        <v>36900</v>
+        <v>28300</v>
       </c>
       <c r="H60" s="3">
-        <v>47300</v>
+        <v>34800</v>
       </c>
       <c r="I60" s="3">
-        <v>71600</v>
+        <v>44700</v>
       </c>
       <c r="J60" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K60" s="3">
         <v>314100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>190100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>758400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36700</v>
+        <v>44000</v>
       </c>
       <c r="E61" s="3">
-        <v>39100</v>
+        <v>34700</v>
       </c>
       <c r="F61" s="3">
-        <v>41500</v>
+        <v>36900</v>
       </c>
       <c r="G61" s="3">
-        <v>37300</v>
+        <v>39200</v>
       </c>
       <c r="H61" s="3">
-        <v>36900</v>
+        <v>35300</v>
       </c>
       <c r="I61" s="3">
-        <v>37100</v>
+        <v>34900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>35100</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>193100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1945400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1200</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>9500</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>170800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57300</v>
+        <v>63800</v>
       </c>
       <c r="E66" s="3">
-        <v>64100</v>
+        <v>54200</v>
       </c>
       <c r="F66" s="3">
-        <v>72600</v>
+        <v>60600</v>
       </c>
       <c r="G66" s="3">
-        <v>75200</v>
+        <v>68600</v>
       </c>
       <c r="H66" s="3">
-        <v>87500</v>
+        <v>71100</v>
       </c>
       <c r="I66" s="3">
-        <v>118600</v>
+        <v>82700</v>
       </c>
       <c r="J66" s="3">
+        <v>112100</v>
+      </c>
+      <c r="K66" s="3">
         <v>327300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>397900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>3987900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>269200</v>
+        <v>256700</v>
       </c>
       <c r="E72" s="3">
-        <v>263300</v>
+        <v>254300</v>
       </c>
       <c r="F72" s="3">
-        <v>257800</v>
+        <v>248800</v>
       </c>
       <c r="G72" s="3">
-        <v>237900</v>
+        <v>243600</v>
       </c>
       <c r="H72" s="3">
-        <v>221100</v>
+        <v>224800</v>
       </c>
       <c r="I72" s="3">
-        <v>214600</v>
+        <v>208900</v>
       </c>
       <c r="J72" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K72" s="3">
         <v>73500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>92600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>361200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80000</v>
+        <v>77900</v>
       </c>
       <c r="E76" s="3">
-        <v>74100</v>
+        <v>75500</v>
       </c>
       <c r="F76" s="3">
-        <v>68600</v>
+        <v>70000</v>
       </c>
       <c r="G76" s="3">
-        <v>48400</v>
+        <v>64800</v>
       </c>
       <c r="H76" s="3">
-        <v>8000</v>
+        <v>45700</v>
       </c>
       <c r="I76" s="3">
-        <v>-2200</v>
+        <v>7600</v>
       </c>
       <c r="J76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-152000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-131400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>160300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5800</v>
+        <v>7700</v>
       </c>
       <c r="E81" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F81" s="3">
-        <v>20000</v>
+        <v>5400</v>
       </c>
       <c r="G81" s="3">
-        <v>12800</v>
+        <v>18900</v>
       </c>
       <c r="H81" s="3">
-        <v>6400</v>
+        <v>12100</v>
       </c>
       <c r="I81" s="3">
-        <v>140600</v>
+        <v>6000</v>
       </c>
       <c r="J81" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-248400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-149000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
-        <v>4700</v>
+        <v>3200</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="J83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>382700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36700</v>
+        <v>28500</v>
       </c>
       <c r="E89" s="3">
-        <v>3300</v>
+        <v>34700</v>
       </c>
       <c r="F89" s="3">
-        <v>21300</v>
+        <v>3200</v>
       </c>
       <c r="G89" s="3">
-        <v>-35500</v>
+        <v>20200</v>
       </c>
       <c r="H89" s="3">
-        <v>8900</v>
+        <v>-33500</v>
       </c>
       <c r="I89" s="3">
-        <v>15000</v>
+        <v>8400</v>
       </c>
       <c r="J89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-39400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>484200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-96300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>2000</v>
-      </c>
       <c r="F94" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="G94" s="3">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="H94" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K94" s="3">
         <v>60900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>63500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-312300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,13 +3757,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3558,11 +3791,14 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-27600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7900</v>
+        <v>-13500</v>
       </c>
       <c r="E100" s="3">
-        <v>-8300</v>
+        <v>-7500</v>
       </c>
       <c r="F100" s="3">
-        <v>-28200</v>
+        <v>-7800</v>
       </c>
       <c r="G100" s="3">
-        <v>45100</v>
+        <v>-26700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4400</v>
+        <v>42600</v>
       </c>
       <c r="I100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-163900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-27300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2000</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
-        <v>600</v>
-      </c>
       <c r="G101" s="3">
-        <v>-900</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26400</v>
+        <v>11800</v>
       </c>
       <c r="E102" s="3">
-        <v>-3700</v>
+        <v>25000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2800</v>
+        <v>-3500</v>
       </c>
       <c r="G102" s="3">
-        <v>15200</v>
+        <v>-2700</v>
       </c>
       <c r="H102" s="3">
-        <v>3000</v>
+        <v>14400</v>
       </c>
       <c r="I102" s="3">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="J102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>142600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>265900</v>
+        <v>280200</v>
       </c>
       <c r="E8" s="3">
-        <v>263300</v>
+        <v>277500</v>
       </c>
       <c r="F8" s="3">
-        <v>343800</v>
+        <v>362300</v>
       </c>
       <c r="G8" s="3">
-        <v>328400</v>
+        <v>346100</v>
       </c>
       <c r="H8" s="3">
-        <v>310500</v>
+        <v>327200</v>
       </c>
       <c r="I8" s="3">
-        <v>262500</v>
+        <v>276600</v>
       </c>
       <c r="J8" s="3">
-        <v>224400</v>
+        <v>236400</v>
       </c>
       <c r="K8" s="3">
         <v>246100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>226200</v>
+        <v>238400</v>
       </c>
       <c r="E9" s="3">
-        <v>235900</v>
+        <v>248600</v>
       </c>
       <c r="F9" s="3">
-        <v>305800</v>
+        <v>322300</v>
       </c>
       <c r="G9" s="3">
-        <v>285900</v>
+        <v>301300</v>
       </c>
       <c r="H9" s="3">
-        <v>263900</v>
+        <v>278100</v>
       </c>
       <c r="I9" s="3">
-        <v>235700</v>
+        <v>248400</v>
       </c>
       <c r="J9" s="3">
-        <v>207700</v>
+        <v>218900</v>
       </c>
       <c r="K9" s="3">
         <v>445700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39700</v>
+        <v>41900</v>
       </c>
       <c r="E10" s="3">
-        <v>27400</v>
+        <v>28900</v>
       </c>
       <c r="F10" s="3">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="G10" s="3">
-        <v>42500</v>
+        <v>44800</v>
       </c>
       <c r="H10" s="3">
-        <v>46600</v>
+        <v>49100</v>
       </c>
       <c r="I10" s="3">
-        <v>26800</v>
+        <v>28300</v>
       </c>
       <c r="J10" s="3">
-        <v>16600</v>
+        <v>17500</v>
       </c>
       <c r="K10" s="3">
         <v>-199600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>244200</v>
+        <v>257300</v>
       </c>
       <c r="E17" s="3">
-        <v>249900</v>
+        <v>263300</v>
       </c>
       <c r="F17" s="3">
-        <v>325500</v>
+        <v>343000</v>
       </c>
       <c r="G17" s="3">
-        <v>304200</v>
+        <v>320600</v>
       </c>
       <c r="H17" s="3">
-        <v>283800</v>
+        <v>299100</v>
       </c>
       <c r="I17" s="3">
-        <v>251800</v>
+        <v>265400</v>
       </c>
       <c r="J17" s="3">
-        <v>222800</v>
+        <v>234700</v>
       </c>
       <c r="K17" s="3">
         <v>240700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21700</v>
+        <v>22900</v>
       </c>
       <c r="E18" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="F18" s="3">
-        <v>18300</v>
+        <v>19300</v>
       </c>
       <c r="G18" s="3">
-        <v>24200</v>
+        <v>25500</v>
       </c>
       <c r="H18" s="3">
-        <v>26700</v>
+        <v>28100</v>
       </c>
       <c r="I18" s="3">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="J18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K18" s="3">
         <v>5400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7200</v>
+        <v>-7600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F20" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>138500</v>
+        <v>146000</v>
       </c>
       <c r="K20" s="3">
         <v>7800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="E21" s="3">
-        <v>14100</v>
+        <v>14800</v>
       </c>
       <c r="F21" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="G21" s="3">
-        <v>34200</v>
+        <v>36100</v>
       </c>
       <c r="H21" s="3">
-        <v>23700</v>
+        <v>24900</v>
       </c>
       <c r="I21" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="J21" s="3">
-        <v>143400</v>
+        <v>151100</v>
       </c>
       <c r="K21" s="3">
         <v>15700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G22" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="I22" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="K22" s="3">
         <v>25500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="E23" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="F23" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="G23" s="3">
-        <v>24600</v>
+        <v>26000</v>
       </c>
       <c r="H23" s="3">
-        <v>15900</v>
+        <v>16700</v>
       </c>
       <c r="I23" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J23" s="3">
-        <v>134000</v>
+        <v>141300</v>
       </c>
       <c r="K23" s="3">
         <v>-12300</v>
@@ -1278,19 +1278,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G24" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E26" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G26" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="H26" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="I26" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J26" s="3">
-        <v>132900</v>
+        <v>140000</v>
       </c>
       <c r="K26" s="3">
         <v>-25500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E27" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="F27" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G27" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="H27" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="I27" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J27" s="3">
-        <v>132900</v>
+        <v>140000</v>
       </c>
       <c r="K27" s="3">
         <v>-25400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F32" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>-138500</v>
+        <v>-146000</v>
       </c>
       <c r="K32" s="3">
         <v>-7800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E33" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="F33" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G33" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="H33" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="I33" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J33" s="3">
-        <v>132900</v>
+        <v>140000</v>
       </c>
       <c r="K33" s="3">
         <v>-25400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E35" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="F35" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G35" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="H35" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="I35" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J35" s="3">
-        <v>132900</v>
+        <v>140000</v>
       </c>
       <c r="K35" s="3">
         <v>-25400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54800</v>
+        <v>57800</v>
       </c>
       <c r="E41" s="3">
-        <v>43100</v>
+        <v>45400</v>
       </c>
       <c r="F41" s="3">
-        <v>18100</v>
+        <v>19100</v>
       </c>
       <c r="G41" s="3">
-        <v>21700</v>
+        <v>22800</v>
       </c>
       <c r="H41" s="3">
-        <v>24300</v>
+        <v>25600</v>
       </c>
       <c r="I41" s="3">
-        <v>9900</v>
+        <v>10500</v>
       </c>
       <c r="J41" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
@@ -1863,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K42" s="3">
         <v>103400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34700</v>
+        <v>36600</v>
       </c>
       <c r="E43" s="3">
-        <v>37800</v>
+        <v>39800</v>
       </c>
       <c r="F43" s="3">
-        <v>44700</v>
+        <v>47100</v>
       </c>
       <c r="G43" s="3">
-        <v>37000</v>
+        <v>39000</v>
       </c>
       <c r="H43" s="3">
-        <v>29200</v>
+        <v>30800</v>
       </c>
       <c r="I43" s="3">
-        <v>34800</v>
+        <v>36700</v>
       </c>
       <c r="J43" s="3">
-        <v>35400</v>
+        <v>37300</v>
       </c>
       <c r="K43" s="3">
         <v>24300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21600</v>
+        <v>22800</v>
       </c>
       <c r="E44" s="3">
-        <v>22900</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>40300</v>
+        <v>42400</v>
       </c>
       <c r="G44" s="3">
+        <v>42600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>29100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J44" s="3">
         <v>40400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>27700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>38300</v>
       </c>
       <c r="K44" s="3">
         <v>20600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11200</v>
+        <v>11800</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>13700</v>
       </c>
       <c r="F45" s="3">
-        <v>14500</v>
+        <v>15300</v>
       </c>
       <c r="G45" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="H45" s="3">
-        <v>23500</v>
+        <v>24800</v>
       </c>
       <c r="I45" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="J45" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124500</v>
+        <v>131200</v>
       </c>
       <c r="E46" s="3">
-        <v>116700</v>
+        <v>123000</v>
       </c>
       <c r="F46" s="3">
-        <v>117600</v>
+        <v>123900</v>
       </c>
       <c r="G46" s="3">
-        <v>116700</v>
+        <v>123000</v>
       </c>
       <c r="H46" s="3">
-        <v>104700</v>
+        <v>110300</v>
       </c>
       <c r="I46" s="3">
-        <v>74100</v>
+        <v>78100</v>
       </c>
       <c r="J46" s="3">
-        <v>91400</v>
+        <v>96300</v>
       </c>
       <c r="K46" s="3">
         <v>154100</v>
@@ -2058,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -2073,10 +2073,10 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13900</v>
+        <v>14600</v>
       </c>
       <c r="E48" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="F48" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="G48" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="H48" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I48" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J48" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="K48" s="3">
         <v>5200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F49" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="G49" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="H49" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="I49" s="3">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="J49" s="3">
-        <v>11200</v>
+        <v>11800</v>
       </c>
       <c r="K49" s="3">
         <v>14800</v>
@@ -2256,7 +2256,7 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141600</v>
+        <v>149300</v>
       </c>
       <c r="E54" s="3">
-        <v>129700</v>
+        <v>136700</v>
       </c>
       <c r="F54" s="3">
-        <v>130600</v>
+        <v>137600</v>
       </c>
       <c r="G54" s="3">
-        <v>133500</v>
+        <v>140600</v>
       </c>
       <c r="H54" s="3">
-        <v>116800</v>
+        <v>123100</v>
       </c>
       <c r="I54" s="3">
-        <v>90200</v>
+        <v>95100</v>
       </c>
       <c r="J54" s="3">
-        <v>110000</v>
+        <v>115900</v>
       </c>
       <c r="K54" s="3">
         <v>175300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="F57" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="G57" s="3">
-        <v>11800</v>
+        <v>12500</v>
       </c>
       <c r="H57" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="I57" s="3">
-        <v>37200</v>
+        <v>39200</v>
       </c>
       <c r="J57" s="3">
-        <v>58100</v>
+        <v>61300</v>
       </c>
       <c r="K57" s="3">
         <v>14100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F58" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G58" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H58" s="3">
-        <v>23800</v>
+        <v>25100</v>
       </c>
       <c r="I58" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J58" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="K58" s="3">
         <v>294100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F59" s="3">
         <v>8800</v>
       </c>
-      <c r="E59" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>8300</v>
-      </c>
       <c r="G59" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="H59" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I59" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="J59" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="K59" s="3">
         <v>5800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19300</v>
+        <v>20300</v>
       </c>
       <c r="E60" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="F60" s="3">
-        <v>22700</v>
+        <v>23900</v>
       </c>
       <c r="G60" s="3">
-        <v>28300</v>
+        <v>29900</v>
       </c>
       <c r="H60" s="3">
-        <v>34800</v>
+        <v>36700</v>
       </c>
       <c r="I60" s="3">
-        <v>44700</v>
+        <v>47100</v>
       </c>
       <c r="J60" s="3">
-        <v>67600</v>
+        <v>71300</v>
       </c>
       <c r="K60" s="3">
         <v>314100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44000</v>
+        <v>46400</v>
       </c>
       <c r="E61" s="3">
-        <v>34700</v>
+        <v>36500</v>
       </c>
       <c r="F61" s="3">
+        <v>38900</v>
+      </c>
+      <c r="G61" s="3">
+        <v>41300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>37200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J61" s="3">
         <v>36900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>39200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>35300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>34900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>35100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -2611,13 +2611,13 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J62" s="3">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="K62" s="3">
         <v>12900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>57100</v>
+      </c>
+      <c r="F66" s="3">
         <v>63800</v>
       </c>
-      <c r="E66" s="3">
-        <v>54200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>60600</v>
-      </c>
       <c r="G66" s="3">
-        <v>68600</v>
+        <v>72300</v>
       </c>
       <c r="H66" s="3">
-        <v>71100</v>
+        <v>74900</v>
       </c>
       <c r="I66" s="3">
-        <v>82700</v>
+        <v>87100</v>
       </c>
       <c r="J66" s="3">
-        <v>112100</v>
+        <v>118100</v>
       </c>
       <c r="K66" s="3">
         <v>327300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>270500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>268000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>262200</v>
+      </c>
+      <c r="G72" s="3">
         <v>256700</v>
       </c>
-      <c r="E72" s="3">
-        <v>254300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>248800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>243600</v>
-      </c>
       <c r="H72" s="3">
-        <v>224800</v>
+        <v>236900</v>
       </c>
       <c r="I72" s="3">
-        <v>208900</v>
+        <v>220200</v>
       </c>
       <c r="J72" s="3">
-        <v>202800</v>
+        <v>213700</v>
       </c>
       <c r="K72" s="3">
         <v>73500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77900</v>
+        <v>82100</v>
       </c>
       <c r="E76" s="3">
-        <v>75500</v>
+        <v>79600</v>
       </c>
       <c r="F76" s="3">
-        <v>70000</v>
+        <v>73800</v>
       </c>
       <c r="G76" s="3">
-        <v>64800</v>
+        <v>68300</v>
       </c>
       <c r="H76" s="3">
-        <v>45700</v>
+        <v>48200</v>
       </c>
       <c r="I76" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="J76" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K76" s="3">
         <v>-152000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="E81" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="F81" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="H81" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="I81" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J81" s="3">
-        <v>132900</v>
+        <v>140000</v>
       </c>
       <c r="K81" s="3">
         <v>-25400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F83" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G83" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="H83" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J83" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K83" s="3">
         <v>2500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="E89" s="3">
-        <v>34700</v>
+        <v>36600</v>
       </c>
       <c r="F89" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G89" s="3">
-        <v>20200</v>
+        <v>21200</v>
       </c>
       <c r="H89" s="3">
-        <v>-33500</v>
+        <v>-35300</v>
       </c>
       <c r="I89" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="J89" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="K89" s="3">
         <v>-39400</v>
@@ -3591,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -3603,13 +3603,13 @@
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G94" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H94" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="I94" s="3">
         <v>-1400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K94" s="3">
         <v>60900</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3920,22 +3920,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13500</v>
+        <v>-14200</v>
       </c>
       <c r="E100" s="3">
-        <v>-7500</v>
+        <v>-7900</v>
       </c>
       <c r="F100" s="3">
-        <v>-7800</v>
+        <v>-8200</v>
       </c>
       <c r="G100" s="3">
-        <v>-26700</v>
+        <v>-28100</v>
       </c>
       <c r="H100" s="3">
-        <v>42600</v>
+        <v>44900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="J100" s="3">
         <v>-1200</v>
@@ -3962,16 +3962,16 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3">
         <v>-800</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="E102" s="3">
-        <v>25000</v>
+        <v>26300</v>
       </c>
       <c r="F102" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G102" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H102" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="I102" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J102" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>280200</v>
+        <v>263500</v>
       </c>
       <c r="E8" s="3">
-        <v>277500</v>
+        <v>260900</v>
       </c>
       <c r="F8" s="3">
-        <v>362300</v>
+        <v>340700</v>
       </c>
       <c r="G8" s="3">
-        <v>346100</v>
+        <v>325400</v>
       </c>
       <c r="H8" s="3">
-        <v>327200</v>
+        <v>307700</v>
       </c>
       <c r="I8" s="3">
-        <v>276600</v>
+        <v>260100</v>
       </c>
       <c r="J8" s="3">
-        <v>236400</v>
+        <v>222300</v>
       </c>
       <c r="K8" s="3">
         <v>246100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>238400</v>
+        <v>224100</v>
       </c>
       <c r="E9" s="3">
-        <v>248600</v>
+        <v>233800</v>
       </c>
       <c r="F9" s="3">
-        <v>322300</v>
+        <v>303100</v>
       </c>
       <c r="G9" s="3">
-        <v>301300</v>
+        <v>283300</v>
       </c>
       <c r="H9" s="3">
-        <v>278100</v>
+        <v>261500</v>
       </c>
       <c r="I9" s="3">
-        <v>248400</v>
+        <v>233500</v>
       </c>
       <c r="J9" s="3">
-        <v>218900</v>
+        <v>205800</v>
       </c>
       <c r="K9" s="3">
         <v>445700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>41900</v>
+        <v>39400</v>
       </c>
       <c r="E10" s="3">
-        <v>28900</v>
+        <v>27200</v>
       </c>
       <c r="F10" s="3">
-        <v>40000</v>
+        <v>37600</v>
       </c>
       <c r="G10" s="3">
-        <v>44800</v>
+        <v>42100</v>
       </c>
       <c r="H10" s="3">
-        <v>49100</v>
+        <v>46200</v>
       </c>
       <c r="I10" s="3">
-        <v>28300</v>
+        <v>26600</v>
       </c>
       <c r="J10" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="K10" s="3">
         <v>-199600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>257300</v>
+        <v>242000</v>
       </c>
       <c r="E17" s="3">
-        <v>263300</v>
+        <v>247600</v>
       </c>
       <c r="F17" s="3">
-        <v>343000</v>
+        <v>322500</v>
       </c>
       <c r="G17" s="3">
-        <v>320600</v>
+        <v>301500</v>
       </c>
       <c r="H17" s="3">
-        <v>299100</v>
+        <v>281200</v>
       </c>
       <c r="I17" s="3">
-        <v>265400</v>
+        <v>249500</v>
       </c>
       <c r="J17" s="3">
-        <v>234700</v>
+        <v>220700</v>
       </c>
       <c r="K17" s="3">
         <v>240700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22900</v>
+        <v>21500</v>
       </c>
       <c r="E18" s="3">
-        <v>14100</v>
+        <v>13300</v>
       </c>
       <c r="F18" s="3">
-        <v>19300</v>
+        <v>18200</v>
       </c>
       <c r="G18" s="3">
-        <v>25500</v>
+        <v>24000</v>
       </c>
       <c r="H18" s="3">
-        <v>28100</v>
+        <v>26500</v>
       </c>
       <c r="I18" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="J18" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K18" s="3">
         <v>5400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="H20" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="I20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>146000</v>
+        <v>137300</v>
       </c>
       <c r="K20" s="3">
         <v>7800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18600</v>
+        <v>17500</v>
       </c>
       <c r="E21" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="F21" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="G21" s="3">
-        <v>36100</v>
+        <v>33800</v>
       </c>
       <c r="H21" s="3">
-        <v>24900</v>
+        <v>23400</v>
       </c>
       <c r="I21" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="J21" s="3">
-        <v>151100</v>
+        <v>142000</v>
       </c>
       <c r="K21" s="3">
         <v>15700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I22" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J22" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="K22" s="3">
         <v>25500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="E23" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="F23" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="G23" s="3">
-        <v>26000</v>
+        <v>24400</v>
       </c>
       <c r="H23" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="I23" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="J23" s="3">
-        <v>141300</v>
+        <v>132800</v>
       </c>
       <c r="K23" s="3">
         <v>-12300</v>
@@ -1278,19 +1278,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3000</v>
-      </c>
       <c r="G24" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H24" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E26" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G26" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="H26" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="I26" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="J26" s="3">
-        <v>140000</v>
+        <v>131700</v>
       </c>
       <c r="K26" s="3">
         <v>-25500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E27" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F27" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G27" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="H27" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="I27" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J27" s="3">
-        <v>140000</v>
+        <v>131700</v>
       </c>
       <c r="K27" s="3">
         <v>-25400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="E32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F32" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="H32" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="I32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-146000</v>
+        <v>-137300</v>
       </c>
       <c r="K32" s="3">
         <v>-7800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E33" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F33" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G33" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="H33" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="I33" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J33" s="3">
-        <v>140000</v>
+        <v>131700</v>
       </c>
       <c r="K33" s="3">
         <v>-25400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E35" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F35" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G35" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="H35" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="I35" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J35" s="3">
-        <v>140000</v>
+        <v>131700</v>
       </c>
       <c r="K35" s="3">
         <v>-25400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>57800</v>
+        <v>54300</v>
       </c>
       <c r="E41" s="3">
-        <v>45400</v>
+        <v>42700</v>
       </c>
       <c r="F41" s="3">
-        <v>19100</v>
+        <v>18000</v>
       </c>
       <c r="G41" s="3">
-        <v>22800</v>
+        <v>21500</v>
       </c>
       <c r="H41" s="3">
-        <v>25600</v>
+        <v>24100</v>
       </c>
       <c r="I41" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="J41" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
@@ -1863,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K42" s="3">
         <v>103400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>36600</v>
+        <v>34400</v>
       </c>
       <c r="E43" s="3">
-        <v>39800</v>
+        <v>37400</v>
       </c>
       <c r="F43" s="3">
-        <v>47100</v>
+        <v>44300</v>
       </c>
       <c r="G43" s="3">
-        <v>39000</v>
+        <v>36700</v>
       </c>
       <c r="H43" s="3">
-        <v>30800</v>
+        <v>28900</v>
       </c>
       <c r="I43" s="3">
-        <v>36700</v>
+        <v>34500</v>
       </c>
       <c r="J43" s="3">
-        <v>37300</v>
+        <v>35100</v>
       </c>
       <c r="K43" s="3">
         <v>24300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22800</v>
+        <v>21400</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="F44" s="3">
-        <v>42400</v>
+        <v>39900</v>
       </c>
       <c r="G44" s="3">
-        <v>42600</v>
+        <v>40000</v>
       </c>
       <c r="H44" s="3">
-        <v>29100</v>
+        <v>27400</v>
       </c>
       <c r="I44" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="J44" s="3">
-        <v>40400</v>
+        <v>37900</v>
       </c>
       <c r="K44" s="3">
         <v>20600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="E45" s="3">
-        <v>13700</v>
+        <v>12900</v>
       </c>
       <c r="F45" s="3">
-        <v>15300</v>
+        <v>14400</v>
       </c>
       <c r="G45" s="3">
-        <v>18600</v>
+        <v>17500</v>
       </c>
       <c r="H45" s="3">
-        <v>24800</v>
+        <v>23300</v>
       </c>
       <c r="I45" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="J45" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>131200</v>
+        <v>123300</v>
       </c>
       <c r="E46" s="3">
-        <v>123000</v>
+        <v>115700</v>
       </c>
       <c r="F46" s="3">
-        <v>123900</v>
+        <v>116500</v>
       </c>
       <c r="G46" s="3">
-        <v>123000</v>
+        <v>115700</v>
       </c>
       <c r="H46" s="3">
-        <v>110300</v>
+        <v>103700</v>
       </c>
       <c r="I46" s="3">
-        <v>78100</v>
+        <v>73400</v>
       </c>
       <c r="J46" s="3">
-        <v>96300</v>
+        <v>90600</v>
       </c>
       <c r="K46" s="3">
         <v>154100</v>
@@ -2058,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>400</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -2073,10 +2073,10 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="E48" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="F48" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="H48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J48" s="3">
         <v>5300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5600</v>
       </c>
       <c r="K48" s="3">
         <v>5200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="G49" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="I49" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="J49" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="K49" s="3">
         <v>14800</v>
@@ -2256,7 +2256,7 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149300</v>
+        <v>140400</v>
       </c>
       <c r="E54" s="3">
-        <v>136700</v>
+        <v>128500</v>
       </c>
       <c r="F54" s="3">
-        <v>137600</v>
+        <v>129400</v>
       </c>
       <c r="G54" s="3">
-        <v>140600</v>
+        <v>132200</v>
       </c>
       <c r="H54" s="3">
-        <v>123100</v>
+        <v>115700</v>
       </c>
       <c r="I54" s="3">
-        <v>95100</v>
+        <v>89400</v>
       </c>
       <c r="J54" s="3">
-        <v>115900</v>
+        <v>109000</v>
       </c>
       <c r="K54" s="3">
         <v>175300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="G57" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="H57" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="I57" s="3">
-        <v>39200</v>
+        <v>36900</v>
       </c>
       <c r="J57" s="3">
-        <v>61300</v>
+        <v>57600</v>
       </c>
       <c r="K57" s="3">
         <v>14100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E58" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="G58" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="H58" s="3">
-        <v>25100</v>
+        <v>23600</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="J58" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K58" s="3">
         <v>294100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="E59" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="F59" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="G59" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="H59" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I59" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="J59" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K59" s="3">
         <v>5800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="E60" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="F60" s="3">
-        <v>23900</v>
+        <v>22500</v>
       </c>
       <c r="G60" s="3">
-        <v>29900</v>
+        <v>28100</v>
       </c>
       <c r="H60" s="3">
-        <v>36700</v>
+        <v>34500</v>
       </c>
       <c r="I60" s="3">
-        <v>47100</v>
+        <v>44300</v>
       </c>
       <c r="J60" s="3">
-        <v>71300</v>
+        <v>67000</v>
       </c>
       <c r="K60" s="3">
         <v>314100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46400</v>
+        <v>43600</v>
       </c>
       <c r="E61" s="3">
-        <v>36500</v>
+        <v>34300</v>
       </c>
       <c r="F61" s="3">
+        <v>36600</v>
+      </c>
+      <c r="G61" s="3">
         <v>38900</v>
       </c>
-      <c r="G61" s="3">
-        <v>41300</v>
-      </c>
       <c r="H61" s="3">
-        <v>37200</v>
+        <v>34900</v>
       </c>
       <c r="I61" s="3">
-        <v>36700</v>
+        <v>34500</v>
       </c>
       <c r="J61" s="3">
-        <v>36900</v>
+        <v>34700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -2611,13 +2611,13 @@
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="K62" s="3">
         <v>12900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67200</v>
+        <v>63200</v>
       </c>
       <c r="E66" s="3">
-        <v>57100</v>
+        <v>53700</v>
       </c>
       <c r="F66" s="3">
-        <v>63800</v>
+        <v>60000</v>
       </c>
       <c r="G66" s="3">
-        <v>72300</v>
+        <v>68000</v>
       </c>
       <c r="H66" s="3">
-        <v>74900</v>
+        <v>70400</v>
       </c>
       <c r="I66" s="3">
-        <v>87100</v>
+        <v>81900</v>
       </c>
       <c r="J66" s="3">
-        <v>118100</v>
+        <v>111000</v>
       </c>
       <c r="K66" s="3">
         <v>327300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>270500</v>
+        <v>254400</v>
       </c>
       <c r="E72" s="3">
-        <v>268000</v>
+        <v>252000</v>
       </c>
       <c r="F72" s="3">
-        <v>262200</v>
+        <v>246600</v>
       </c>
       <c r="G72" s="3">
-        <v>256700</v>
+        <v>241400</v>
       </c>
       <c r="H72" s="3">
-        <v>236900</v>
+        <v>222700</v>
       </c>
       <c r="I72" s="3">
-        <v>220200</v>
+        <v>207000</v>
       </c>
       <c r="J72" s="3">
-        <v>213700</v>
+        <v>201000</v>
       </c>
       <c r="K72" s="3">
         <v>73500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82100</v>
+        <v>77200</v>
       </c>
       <c r="E76" s="3">
-        <v>79600</v>
+        <v>74900</v>
       </c>
       <c r="F76" s="3">
-        <v>73800</v>
+        <v>69400</v>
       </c>
       <c r="G76" s="3">
-        <v>68300</v>
+        <v>64200</v>
       </c>
       <c r="H76" s="3">
-        <v>48200</v>
+        <v>45300</v>
       </c>
       <c r="I76" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="J76" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K76" s="3">
         <v>-152000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E81" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F81" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G81" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="H81" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="I81" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J81" s="3">
-        <v>140000</v>
+        <v>131700</v>
       </c>
       <c r="K81" s="3">
         <v>-25400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I83" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J83" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>2500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30000</v>
+        <v>28200</v>
       </c>
       <c r="E89" s="3">
-        <v>36600</v>
+        <v>34400</v>
       </c>
       <c r="F89" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G89" s="3">
-        <v>21200</v>
+        <v>20000</v>
       </c>
       <c r="H89" s="3">
-        <v>-35300</v>
+        <v>-33200</v>
       </c>
       <c r="I89" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="J89" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="K89" s="3">
         <v>-39400</v>
@@ -3591,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -3603,13 +3603,13 @@
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G94" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H94" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="I94" s="3">
         <v>-1400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="K94" s="3">
         <v>60900</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14200</v>
+        <v>-13400</v>
       </c>
       <c r="E100" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="F100" s="3">
-        <v>-8200</v>
+        <v>-7700</v>
       </c>
       <c r="G100" s="3">
-        <v>-28100</v>
+        <v>-26400</v>
       </c>
       <c r="H100" s="3">
-        <v>44900</v>
+        <v>42200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K100" s="3">
         <v>-21500</v>
@@ -3962,16 +3962,16 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="F101" s="3">
         <v>-800</v>
       </c>
       <c r="G101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="E102" s="3">
-        <v>26300</v>
+        <v>24700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H102" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="I102" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J102" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>263500</v>
+        <v>254200</v>
       </c>
       <c r="E8" s="3">
-        <v>260900</v>
+        <v>251600</v>
       </c>
       <c r="F8" s="3">
-        <v>340700</v>
+        <v>328600</v>
       </c>
       <c r="G8" s="3">
-        <v>325400</v>
+        <v>313900</v>
       </c>
       <c r="H8" s="3">
-        <v>307700</v>
+        <v>296800</v>
       </c>
       <c r="I8" s="3">
-        <v>260100</v>
+        <v>250900</v>
       </c>
       <c r="J8" s="3">
-        <v>222300</v>
+        <v>214400</v>
       </c>
       <c r="K8" s="3">
         <v>246100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>224100</v>
+        <v>216200</v>
       </c>
       <c r="E9" s="3">
-        <v>233800</v>
+        <v>225500</v>
       </c>
       <c r="F9" s="3">
-        <v>303100</v>
+        <v>292300</v>
       </c>
       <c r="G9" s="3">
-        <v>283300</v>
+        <v>273300</v>
       </c>
       <c r="H9" s="3">
-        <v>261500</v>
+        <v>252200</v>
       </c>
       <c r="I9" s="3">
-        <v>233500</v>
+        <v>225200</v>
       </c>
       <c r="J9" s="3">
-        <v>205800</v>
+        <v>198500</v>
       </c>
       <c r="K9" s="3">
         <v>445700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39400</v>
+        <v>38000</v>
       </c>
       <c r="E10" s="3">
-        <v>27200</v>
+        <v>26200</v>
       </c>
       <c r="F10" s="3">
-        <v>37600</v>
+        <v>36300</v>
       </c>
       <c r="G10" s="3">
-        <v>42100</v>
+        <v>40600</v>
       </c>
       <c r="H10" s="3">
-        <v>46200</v>
+        <v>44500</v>
       </c>
       <c r="I10" s="3">
-        <v>26600</v>
+        <v>25600</v>
       </c>
       <c r="J10" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="K10" s="3">
         <v>-199600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>242000</v>
+        <v>233400</v>
       </c>
       <c r="E17" s="3">
-        <v>247600</v>
+        <v>238800</v>
       </c>
       <c r="F17" s="3">
-        <v>322500</v>
+        <v>311100</v>
       </c>
       <c r="G17" s="3">
-        <v>301500</v>
+        <v>290800</v>
       </c>
       <c r="H17" s="3">
-        <v>281200</v>
+        <v>271300</v>
       </c>
       <c r="I17" s="3">
-        <v>249500</v>
+        <v>240700</v>
       </c>
       <c r="J17" s="3">
-        <v>220700</v>
+        <v>212900</v>
       </c>
       <c r="K17" s="3">
         <v>240700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="E18" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="F18" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="G18" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="H18" s="3">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="I18" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="J18" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K18" s="3">
         <v>5400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G20" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="H20" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>137300</v>
+        <v>132400</v>
       </c>
       <c r="K20" s="3">
         <v>7800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="E21" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="F21" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="G21" s="3">
-        <v>33800</v>
+        <v>32700</v>
       </c>
       <c r="H21" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="I21" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="J21" s="3">
-        <v>142000</v>
+        <v>137000</v>
       </c>
       <c r="K21" s="3">
         <v>15700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
-        <v>4200</v>
-      </c>
       <c r="F22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J22" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="K22" s="3">
         <v>25500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E23" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="F23" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="G23" s="3">
-        <v>24400</v>
+        <v>23500</v>
       </c>
       <c r="H23" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="I23" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J23" s="3">
-        <v>132800</v>
+        <v>128100</v>
       </c>
       <c r="K23" s="3">
         <v>-12300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E24" s="3">
         <v>1100</v>
       </c>
       <c r="F24" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G24" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K24" s="3">
         <v>13200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E26" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F26" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G26" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H26" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="I26" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J26" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="K26" s="3">
         <v>-25500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E27" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F27" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G27" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H27" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="I27" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J27" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="K27" s="3">
         <v>-25400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F32" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="H32" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-137300</v>
+        <v>-132400</v>
       </c>
       <c r="K32" s="3">
         <v>-7800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E33" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F33" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G33" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H33" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="I33" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J33" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="K33" s="3">
         <v>-25400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E35" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F35" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G35" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H35" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="I35" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J35" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="K35" s="3">
         <v>-25400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54300</v>
+        <v>52400</v>
       </c>
       <c r="E41" s="3">
-        <v>42700</v>
+        <v>41200</v>
       </c>
       <c r="F41" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="G41" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="H41" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="I41" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="J41" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34400</v>
+        <v>33200</v>
       </c>
       <c r="E43" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="F43" s="3">
-        <v>44300</v>
+        <v>42700</v>
       </c>
       <c r="G43" s="3">
-        <v>36700</v>
+        <v>35400</v>
       </c>
       <c r="H43" s="3">
-        <v>28900</v>
+        <v>27900</v>
       </c>
       <c r="I43" s="3">
-        <v>34500</v>
+        <v>33300</v>
       </c>
       <c r="J43" s="3">
-        <v>35100</v>
+        <v>33900</v>
       </c>
       <c r="K43" s="3">
         <v>24300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21400</v>
+        <v>20600</v>
       </c>
       <c r="E44" s="3">
-        <v>22700</v>
+        <v>21900</v>
       </c>
       <c r="F44" s="3">
-        <v>39900</v>
+        <v>38500</v>
       </c>
       <c r="G44" s="3">
-        <v>40000</v>
+        <v>38600</v>
       </c>
       <c r="H44" s="3">
-        <v>27400</v>
+        <v>26400</v>
       </c>
       <c r="I44" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="J44" s="3">
-        <v>37900</v>
+        <v>36600</v>
       </c>
       <c r="K44" s="3">
         <v>20600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="E45" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="F45" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="G45" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="H45" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="I45" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="J45" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="K45" s="3">
         <v>5200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>123300</v>
+        <v>118900</v>
       </c>
       <c r="E46" s="3">
-        <v>115700</v>
+        <v>111600</v>
       </c>
       <c r="F46" s="3">
-        <v>116500</v>
+        <v>112300</v>
       </c>
       <c r="G46" s="3">
-        <v>115700</v>
+        <v>111600</v>
       </c>
       <c r="H46" s="3">
-        <v>103700</v>
+        <v>100000</v>
       </c>
       <c r="I46" s="3">
-        <v>73400</v>
+        <v>70800</v>
       </c>
       <c r="J46" s="3">
-        <v>90600</v>
+        <v>87300</v>
       </c>
       <c r="K46" s="3">
         <v>154100</v>
@@ -2073,10 +2073,10 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="E48" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F48" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="G48" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="H48" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J48" s="3">
         <v>5100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5300</v>
       </c>
       <c r="K48" s="3">
         <v>5200</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I49" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="J49" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="K49" s="3">
         <v>14800</v>
@@ -2253,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>140400</v>
+        <v>135400</v>
       </c>
       <c r="E54" s="3">
-        <v>128500</v>
+        <v>124000</v>
       </c>
       <c r="F54" s="3">
-        <v>129400</v>
+        <v>124800</v>
       </c>
       <c r="G54" s="3">
-        <v>132200</v>
+        <v>127600</v>
       </c>
       <c r="H54" s="3">
-        <v>115700</v>
+        <v>111600</v>
       </c>
       <c r="I54" s="3">
-        <v>89400</v>
+        <v>86200</v>
       </c>
       <c r="J54" s="3">
-        <v>109000</v>
+        <v>105100</v>
       </c>
       <c r="K54" s="3">
         <v>175300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6800</v>
-      </c>
       <c r="I57" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="J57" s="3">
-        <v>57600</v>
+        <v>55600</v>
       </c>
       <c r="K57" s="3">
         <v>14100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F58" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G58" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H58" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="I58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K58" s="3">
         <v>294100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="E59" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F59" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="G59" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="H59" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I59" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J59" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K59" s="3">
         <v>5800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19100</v>
+        <v>18400</v>
       </c>
       <c r="E60" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="F60" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="G60" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="H60" s="3">
-        <v>34500</v>
+        <v>33300</v>
       </c>
       <c r="I60" s="3">
-        <v>44300</v>
+        <v>42700</v>
       </c>
       <c r="J60" s="3">
-        <v>67000</v>
+        <v>64600</v>
       </c>
       <c r="K60" s="3">
         <v>314100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43600</v>
+        <v>42100</v>
       </c>
       <c r="E61" s="3">
-        <v>34300</v>
+        <v>33100</v>
       </c>
       <c r="F61" s="3">
-        <v>36600</v>
+        <v>35300</v>
       </c>
       <c r="G61" s="3">
-        <v>38900</v>
+        <v>37500</v>
       </c>
       <c r="H61" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="I61" s="3">
-        <v>34500</v>
+        <v>33300</v>
       </c>
       <c r="J61" s="3">
-        <v>34700</v>
+        <v>33500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J62" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="K62" s="3">
         <v>12900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63200</v>
+        <v>60900</v>
       </c>
       <c r="E66" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="F66" s="3">
-        <v>60000</v>
+        <v>57900</v>
       </c>
       <c r="G66" s="3">
-        <v>68000</v>
+        <v>65600</v>
       </c>
       <c r="H66" s="3">
-        <v>70400</v>
+        <v>67900</v>
       </c>
       <c r="I66" s="3">
-        <v>81900</v>
+        <v>79000</v>
       </c>
       <c r="J66" s="3">
-        <v>111000</v>
+        <v>107100</v>
       </c>
       <c r="K66" s="3">
         <v>327300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>254400</v>
+        <v>245300</v>
       </c>
       <c r="E72" s="3">
-        <v>252000</v>
+        <v>243100</v>
       </c>
       <c r="F72" s="3">
-        <v>246600</v>
+        <v>237800</v>
       </c>
       <c r="G72" s="3">
-        <v>241400</v>
+        <v>232800</v>
       </c>
       <c r="H72" s="3">
-        <v>222700</v>
+        <v>214800</v>
       </c>
       <c r="I72" s="3">
-        <v>207000</v>
+        <v>199700</v>
       </c>
       <c r="J72" s="3">
-        <v>201000</v>
+        <v>193800</v>
       </c>
       <c r="K72" s="3">
         <v>73500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77200</v>
+        <v>74400</v>
       </c>
       <c r="E76" s="3">
-        <v>74900</v>
+        <v>72200</v>
       </c>
       <c r="F76" s="3">
-        <v>69400</v>
+        <v>66900</v>
       </c>
       <c r="G76" s="3">
-        <v>64200</v>
+        <v>62000</v>
       </c>
       <c r="H76" s="3">
-        <v>45300</v>
+        <v>43700</v>
       </c>
       <c r="I76" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="J76" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K76" s="3">
         <v>-152000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E81" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F81" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G81" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H81" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="I81" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J81" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="K81" s="3">
         <v>-25400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J83" s="3">
         <v>3100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>2500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="E89" s="3">
-        <v>34400</v>
+        <v>33200</v>
       </c>
       <c r="F89" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G89" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="H89" s="3">
-        <v>-33200</v>
+        <v>-32000</v>
       </c>
       <c r="I89" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="J89" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="K89" s="3">
         <v>-39400</v>
@@ -3591,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
         <v>-500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G94" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H94" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J94" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="K94" s="3">
         <v>60900</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3920,22 +3920,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="G100" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="H100" s="3">
-        <v>42200</v>
+        <v>40700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J100" s="3">
         <v>-1100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="E102" s="3">
-        <v>24700</v>
+        <v>23900</v>
       </c>
       <c r="F102" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H102" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="I102" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J102" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>SCIXF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>254200</v>
+        <v>261900</v>
       </c>
       <c r="E8" s="3">
-        <v>251600</v>
+        <v>251400</v>
       </c>
       <c r="F8" s="3">
-        <v>328600</v>
+        <v>248900</v>
       </c>
       <c r="G8" s="3">
-        <v>313900</v>
+        <v>325000</v>
       </c>
       <c r="H8" s="3">
-        <v>296800</v>
+        <v>310500</v>
       </c>
       <c r="I8" s="3">
-        <v>250900</v>
+        <v>293500</v>
       </c>
       <c r="J8" s="3">
+        <v>248100</v>
+      </c>
+      <c r="K8" s="3">
         <v>214400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>246100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>366000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>302900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2134400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>216200</v>
+        <v>224400</v>
       </c>
       <c r="E9" s="3">
-        <v>225500</v>
+        <v>213800</v>
       </c>
       <c r="F9" s="3">
-        <v>292300</v>
+        <v>223000</v>
       </c>
       <c r="G9" s="3">
-        <v>273300</v>
+        <v>289100</v>
       </c>
       <c r="H9" s="3">
-        <v>252200</v>
+        <v>270300</v>
       </c>
       <c r="I9" s="3">
-        <v>225200</v>
+        <v>249500</v>
       </c>
       <c r="J9" s="3">
+        <v>222800</v>
+      </c>
+      <c r="K9" s="3">
         <v>198500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>445700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>650200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>495000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1707800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="E10" s="3">
-        <v>26200</v>
+        <v>37600</v>
       </c>
       <c r="F10" s="3">
-        <v>36300</v>
+        <v>25900</v>
       </c>
       <c r="G10" s="3">
-        <v>40600</v>
+        <v>35900</v>
       </c>
       <c r="H10" s="3">
-        <v>44500</v>
+        <v>40200</v>
       </c>
       <c r="I10" s="3">
-        <v>25600</v>
+        <v>44000</v>
       </c>
       <c r="J10" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K10" s="3">
         <v>15900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-199600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-284200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-192000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>426500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,20 +975,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>329100</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,15 +1022,18 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>8800</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>233400</v>
+        <v>235900</v>
       </c>
       <c r="E17" s="3">
-        <v>238800</v>
+        <v>230800</v>
       </c>
       <c r="F17" s="3">
-        <v>311100</v>
+        <v>236200</v>
       </c>
       <c r="G17" s="3">
-        <v>290800</v>
+        <v>307700</v>
       </c>
       <c r="H17" s="3">
-        <v>271300</v>
+        <v>287600</v>
       </c>
       <c r="I17" s="3">
+        <v>268300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>238000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>212900</v>
+      </c>
+      <c r="L17" s="3">
         <v>240700</v>
       </c>
-      <c r="J17" s="3">
-        <v>212900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>240700</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>327500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>273700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2274500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="E18" s="3">
-        <v>12800</v>
+        <v>20500</v>
       </c>
       <c r="F18" s="3">
-        <v>17500</v>
+        <v>12700</v>
       </c>
       <c r="G18" s="3">
-        <v>23100</v>
+        <v>17300</v>
       </c>
       <c r="H18" s="3">
-        <v>25500</v>
+        <v>22900</v>
       </c>
       <c r="I18" s="3">
-        <v>10200</v>
+        <v>25200</v>
       </c>
       <c r="J18" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-140200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,100 +1148,107 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-4900</v>
-      </c>
       <c r="G20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>132400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-142900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16900</v>
+        <v>30000</v>
       </c>
       <c r="E21" s="3">
-        <v>13500</v>
+        <v>16700</v>
       </c>
       <c r="F21" s="3">
-        <v>16900</v>
+        <v>13300</v>
       </c>
       <c r="G21" s="3">
-        <v>32700</v>
+        <v>16700</v>
       </c>
       <c r="H21" s="3">
-        <v>22600</v>
+        <v>32300</v>
       </c>
       <c r="I21" s="3">
-        <v>13200</v>
+        <v>22400</v>
       </c>
       <c r="J21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K21" s="3">
         <v>137000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>98800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
-        <v>4100</v>
-      </c>
       <c r="F22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G22" s="3">
         <v>4800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4700</v>
       </c>
       <c r="H22" s="3">
         <v>4700</v>
@@ -1218,101 +1257,110 @@
         <v>4700</v>
       </c>
       <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
         <v>5800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10000</v>
+        <v>24700</v>
       </c>
       <c r="E23" s="3">
-        <v>6400</v>
+        <v>9900</v>
       </c>
       <c r="F23" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G23" s="3">
         <v>7800</v>
       </c>
-      <c r="G23" s="3">
-        <v>23500</v>
-      </c>
       <c r="H23" s="3">
-        <v>15200</v>
+        <v>23300</v>
       </c>
       <c r="I23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J23" s="3">
         <v>5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>128100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-283100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2600</v>
+        <v>4600</v>
       </c>
       <c r="E24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
-        <v>3600</v>
-      </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7400</v>
+        <v>20100</v>
       </c>
       <c r="E26" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="F26" s="3">
         <v>5200</v>
       </c>
       <c r="G26" s="3">
-        <v>18100</v>
+        <v>5100</v>
       </c>
       <c r="H26" s="3">
-        <v>11600</v>
+        <v>17900</v>
       </c>
       <c r="I26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J26" s="3">
         <v>5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>127000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-334900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7400</v>
+        <v>20100</v>
       </c>
       <c r="E27" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="F27" s="3">
         <v>5200</v>
       </c>
       <c r="G27" s="3">
-        <v>18100</v>
+        <v>5100</v>
       </c>
       <c r="H27" s="3">
-        <v>11600</v>
+        <v>17900</v>
       </c>
       <c r="I27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J27" s="3">
         <v>5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>127000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>567000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-149000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-76700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-815400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
-        <v>4900</v>
-      </c>
       <c r="G32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-132400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>142900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7400</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="F33" s="3">
         <v>5200</v>
       </c>
       <c r="G33" s="3">
-        <v>18100</v>
+        <v>5100</v>
       </c>
       <c r="H33" s="3">
-        <v>11600</v>
+        <v>17900</v>
       </c>
       <c r="I33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J33" s="3">
         <v>5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>127000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-248400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-149000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7400</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="F35" s="3">
         <v>5200</v>
       </c>
       <c r="G35" s="3">
-        <v>18100</v>
+        <v>5100</v>
       </c>
       <c r="H35" s="3">
-        <v>11600</v>
+        <v>17900</v>
       </c>
       <c r="I35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J35" s="3">
         <v>5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>127000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-248400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-149000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,55 +1903,59 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52400</v>
+        <v>52300</v>
       </c>
       <c r="E41" s="3">
-        <v>41200</v>
+        <v>51800</v>
       </c>
       <c r="F41" s="3">
-        <v>17300</v>
+        <v>40700</v>
       </c>
       <c r="G41" s="3">
-        <v>20700</v>
+        <v>17100</v>
       </c>
       <c r="H41" s="3">
-        <v>23200</v>
+        <v>20500</v>
       </c>
       <c r="I41" s="3">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="J41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>294100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+        <v>4100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1877,300 +1966,324 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>103400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>37500</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33200</v>
+        <v>38900</v>
       </c>
       <c r="E43" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>35700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>42200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>33900</v>
+      </c>
+      <c r="L43" s="3">
+        <v>24300</v>
+      </c>
+      <c r="M43" s="3">
         <v>36100</v>
       </c>
-      <c r="F43" s="3">
-        <v>42700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>35400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>27900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>33300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>33900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>24300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>36100</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>477600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>38100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>38200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>36600</v>
+      </c>
+      <c r="L44" s="3">
         <v>20600</v>
       </c>
-      <c r="E44" s="3">
-        <v>21900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>38500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>38600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>26400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>36600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>20600</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>59300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10700</v>
+        <v>13100</v>
       </c>
       <c r="E45" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>16900</v>
+        <v>13700</v>
       </c>
       <c r="H45" s="3">
-        <v>22500</v>
+        <v>16700</v>
       </c>
       <c r="I45" s="3">
-        <v>11200</v>
+        <v>22200</v>
       </c>
       <c r="J45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118900</v>
+        <v>127100</v>
       </c>
       <c r="E46" s="3">
-        <v>111600</v>
+        <v>117600</v>
       </c>
       <c r="F46" s="3">
-        <v>112300</v>
+        <v>110300</v>
       </c>
       <c r="G46" s="3">
-        <v>111600</v>
+        <v>111100</v>
       </c>
       <c r="H46" s="3">
-        <v>100000</v>
+        <v>110300</v>
       </c>
       <c r="I46" s="3">
-        <v>70800</v>
+        <v>98900</v>
       </c>
       <c r="J46" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K46" s="3">
         <v>87300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>116100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>873800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>1900</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>114900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3">
         <v>236400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="E48" s="3">
-        <v>8000</v>
+        <v>13100</v>
       </c>
       <c r="F48" s="3">
-        <v>9600</v>
+        <v>7900</v>
       </c>
       <c r="G48" s="3">
-        <v>11300</v>
+        <v>9500</v>
       </c>
       <c r="H48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>566100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3">
-        <v>6500</v>
-      </c>
       <c r="I49" s="3">
-        <v>8600</v>
+        <v>6400</v>
       </c>
       <c r="J49" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K49" s="3">
         <v>10700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>2394500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,20 +2362,23 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>1900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2270,24 +2389,27 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>77300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>135400</v>
+        <v>143300</v>
       </c>
       <c r="E54" s="3">
-        <v>124000</v>
+        <v>133900</v>
       </c>
       <c r="F54" s="3">
-        <v>124800</v>
+        <v>122600</v>
       </c>
       <c r="G54" s="3">
-        <v>127600</v>
+        <v>123400</v>
       </c>
       <c r="H54" s="3">
-        <v>111600</v>
+        <v>126200</v>
       </c>
       <c r="I54" s="3">
-        <v>86200</v>
+        <v>110400</v>
       </c>
       <c r="J54" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K54" s="3">
         <v>105100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>266500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>4148200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>9600</v>
+        <v>4700</v>
       </c>
       <c r="G57" s="3">
-        <v>11300</v>
+        <v>9500</v>
       </c>
       <c r="H57" s="3">
-        <v>6500</v>
+        <v>10700</v>
       </c>
       <c r="I57" s="3">
-        <v>35600</v>
+        <v>5500</v>
       </c>
       <c r="J57" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K57" s="3">
         <v>55600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>315600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
-        <v>4200</v>
-      </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H58" s="3">
-        <v>22700</v>
+        <v>4100</v>
       </c>
       <c r="I58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>294100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>94700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>339900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="E59" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="F59" s="3">
-        <v>8000</v>
+        <v>9100</v>
       </c>
       <c r="G59" s="3">
-        <v>11600</v>
+        <v>7900</v>
       </c>
       <c r="H59" s="3">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="I59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>102900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18400</v>
+        <v>19700</v>
       </c>
       <c r="E60" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="F60" s="3">
-        <v>21700</v>
+        <v>17900</v>
       </c>
       <c r="G60" s="3">
-        <v>27100</v>
+        <v>21500</v>
       </c>
       <c r="H60" s="3">
-        <v>33300</v>
+        <v>26800</v>
       </c>
       <c r="I60" s="3">
-        <v>42700</v>
+        <v>32900</v>
       </c>
       <c r="J60" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K60" s="3">
         <v>64600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>314100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>190100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>758400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42100</v>
+        <v>42700</v>
       </c>
       <c r="E61" s="3">
-        <v>33100</v>
+        <v>41600</v>
       </c>
       <c r="F61" s="3">
-        <v>35300</v>
+        <v>32800</v>
       </c>
       <c r="G61" s="3">
-        <v>37500</v>
+        <v>34900</v>
       </c>
       <c r="H61" s="3">
-        <v>33700</v>
+        <v>37100</v>
       </c>
       <c r="I61" s="3">
         <v>33300</v>
       </c>
       <c r="J61" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K61" s="3">
         <v>33500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>193100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1945400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
-        <v>900</v>
-      </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
       <c r="I62" s="3">
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>170800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60900</v>
+        <v>62600</v>
       </c>
       <c r="E66" s="3">
-        <v>51800</v>
+        <v>60300</v>
       </c>
       <c r="F66" s="3">
-        <v>57900</v>
+        <v>51200</v>
       </c>
       <c r="G66" s="3">
-        <v>65600</v>
+        <v>57200</v>
       </c>
       <c r="H66" s="3">
-        <v>67900</v>
+        <v>64900</v>
       </c>
       <c r="I66" s="3">
-        <v>79000</v>
+        <v>67200</v>
       </c>
       <c r="J66" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K66" s="3">
         <v>107100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>397900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>3987900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>245300</v>
+        <v>249700</v>
       </c>
       <c r="E72" s="3">
-        <v>243100</v>
+        <v>242600</v>
       </c>
       <c r="F72" s="3">
-        <v>237800</v>
+        <v>240400</v>
       </c>
       <c r="G72" s="3">
-        <v>232800</v>
+        <v>235200</v>
       </c>
       <c r="H72" s="3">
-        <v>214800</v>
+        <v>230300</v>
       </c>
       <c r="I72" s="3">
-        <v>199700</v>
+        <v>212500</v>
       </c>
       <c r="J72" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K72" s="3">
         <v>193800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>73500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>92600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>361200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74400</v>
+        <v>80700</v>
       </c>
       <c r="E76" s="3">
-        <v>72200</v>
+        <v>73600</v>
       </c>
       <c r="F76" s="3">
-        <v>66900</v>
+        <v>71400</v>
       </c>
       <c r="G76" s="3">
-        <v>62000</v>
+        <v>66200</v>
       </c>
       <c r="H76" s="3">
-        <v>43700</v>
+        <v>61300</v>
       </c>
       <c r="I76" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J76" s="3">
         <v>7200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-152000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-131400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>160300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7400</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="F81" s="3">
         <v>5200</v>
       </c>
       <c r="G81" s="3">
-        <v>18100</v>
+        <v>5100</v>
       </c>
       <c r="H81" s="3">
-        <v>11600</v>
+        <v>17900</v>
       </c>
       <c r="I81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J81" s="3">
         <v>5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>127000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-248400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-149000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
         <v>3000</v>
       </c>
       <c r="F83" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="G83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H83" s="3">
         <v>4400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2700</v>
       </c>
       <c r="I83" s="3">
         <v>2700</v>
       </c>
       <c r="J83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>382700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27200</v>
+        <v>16200</v>
       </c>
       <c r="E89" s="3">
-        <v>33200</v>
+        <v>26900</v>
       </c>
       <c r="F89" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
-        <v>19300</v>
-      </c>
       <c r="H89" s="3">
-        <v>-32000</v>
+        <v>19100</v>
       </c>
       <c r="I89" s="3">
-        <v>8000</v>
+        <v>-31700</v>
       </c>
       <c r="J89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K89" s="3">
         <v>13500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-39400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>484200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-96300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3000</v>
+        <v>4200</v>
       </c>
       <c r="E94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1800</v>
       </c>
-      <c r="G94" s="3">
-        <v>3200</v>
-      </c>
       <c r="H94" s="3">
-        <v>5900</v>
+        <v>3100</v>
       </c>
       <c r="I94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>60900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>63500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-312300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,16 +3990,17 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>-13700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3794,11 +4027,14 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-27600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12900</v>
+        <v>-20700</v>
       </c>
       <c r="E100" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-7500</v>
-      </c>
       <c r="G100" s="3">
-        <v>-25500</v>
+        <v>-7400</v>
       </c>
       <c r="H100" s="3">
-        <v>40700</v>
+        <v>-25200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4000</v>
+        <v>40200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-163900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-27300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
-        <v>500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11200</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>23900</v>
+        <v>11100</v>
       </c>
       <c r="F102" s="3">
-        <v>-3400</v>
+        <v>23600</v>
       </c>
       <c r="G102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
-        <v>13700</v>
-      </c>
       <c r="I102" s="3">
-        <v>2800</v>
+        <v>13600</v>
       </c>
       <c r="J102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>142600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SCIXF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>261900</v>
+        <v>250800</v>
       </c>
       <c r="E8" s="3">
-        <v>251400</v>
+        <v>240700</v>
       </c>
       <c r="F8" s="3">
-        <v>248900</v>
+        <v>238400</v>
       </c>
       <c r="G8" s="3">
-        <v>325000</v>
+        <v>311300</v>
       </c>
       <c r="H8" s="3">
-        <v>310500</v>
+        <v>297300</v>
       </c>
       <c r="I8" s="3">
-        <v>293500</v>
+        <v>281100</v>
       </c>
       <c r="J8" s="3">
-        <v>248100</v>
+        <v>237600</v>
       </c>
       <c r="K8" s="3">
         <v>214400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>224400</v>
+        <v>214900</v>
       </c>
       <c r="E9" s="3">
-        <v>213800</v>
+        <v>204800</v>
       </c>
       <c r="F9" s="3">
-        <v>223000</v>
+        <v>213600</v>
       </c>
       <c r="G9" s="3">
-        <v>289100</v>
+        <v>276900</v>
       </c>
       <c r="H9" s="3">
-        <v>270300</v>
+        <v>258800</v>
       </c>
       <c r="I9" s="3">
-        <v>249500</v>
+        <v>238900</v>
       </c>
       <c r="J9" s="3">
-        <v>222800</v>
+        <v>213400</v>
       </c>
       <c r="K9" s="3">
         <v>198500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37500</v>
+        <v>35900</v>
       </c>
       <c r="E10" s="3">
-        <v>37600</v>
+        <v>36000</v>
       </c>
       <c r="F10" s="3">
-        <v>25900</v>
+        <v>24800</v>
       </c>
       <c r="G10" s="3">
-        <v>35900</v>
+        <v>34400</v>
       </c>
       <c r="H10" s="3">
-        <v>40200</v>
+        <v>38500</v>
       </c>
       <c r="I10" s="3">
-        <v>44000</v>
+        <v>42200</v>
       </c>
       <c r="J10" s="3">
-        <v>25400</v>
+        <v>24300</v>
       </c>
       <c r="K10" s="3">
         <v>15900</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235900</v>
+        <v>225900</v>
       </c>
       <c r="E17" s="3">
-        <v>230800</v>
+        <v>221100</v>
       </c>
       <c r="F17" s="3">
-        <v>236200</v>
+        <v>226200</v>
       </c>
       <c r="G17" s="3">
-        <v>307700</v>
+        <v>294700</v>
       </c>
       <c r="H17" s="3">
-        <v>287600</v>
+        <v>275400</v>
       </c>
       <c r="I17" s="3">
-        <v>268300</v>
+        <v>256900</v>
       </c>
       <c r="J17" s="3">
-        <v>238000</v>
+        <v>228000</v>
       </c>
       <c r="K17" s="3">
         <v>212900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26000</v>
+        <v>24900</v>
       </c>
       <c r="E18" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="F18" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="G18" s="3">
-        <v>17300</v>
+        <v>16600</v>
       </c>
       <c r="H18" s="3">
-        <v>22900</v>
+        <v>21900</v>
       </c>
       <c r="I18" s="3">
-        <v>25200</v>
+        <v>24200</v>
       </c>
       <c r="J18" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="K18" s="3">
         <v>1500</v>
@@ -1158,19 +1158,19 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>-5600</v>
+        <v>-5300</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30000</v>
+        <v>28700</v>
       </c>
       <c r="E21" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="F21" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="G21" s="3">
-        <v>16700</v>
+        <v>16000</v>
       </c>
       <c r="H21" s="3">
-        <v>32300</v>
+        <v>31000</v>
       </c>
       <c r="I21" s="3">
-        <v>22400</v>
+        <v>21400</v>
       </c>
       <c r="J21" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="K21" s="3">
         <v>137000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
-        <v>4000</v>
-      </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="H22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="I22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K22" s="3">
         <v>5800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="E23" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="F23" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G23" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="H23" s="3">
-        <v>23300</v>
+        <v>22300</v>
       </c>
       <c r="I23" s="3">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="J23" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K23" s="3">
         <v>128100</v>
@@ -1323,22 +1323,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2700</v>
-      </c>
       <c r="H24" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I24" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="E26" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F26" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G26" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H26" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="I26" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J26" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K26" s="3">
         <v>127000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="E27" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F27" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G27" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H27" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="I27" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J27" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K27" s="3">
         <v>127000</v>
@@ -1662,19 +1662,19 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="F32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="E33" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F33" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G33" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H33" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="I33" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J33" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K33" s="3">
         <v>127000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="E35" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F35" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G35" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H35" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="I35" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J35" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K35" s="3">
         <v>127000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52300</v>
+        <v>50100</v>
       </c>
       <c r="E41" s="3">
-        <v>51800</v>
+        <v>49700</v>
       </c>
       <c r="F41" s="3">
-        <v>40700</v>
+        <v>39000</v>
       </c>
       <c r="G41" s="3">
-        <v>17100</v>
+        <v>16400</v>
       </c>
       <c r="H41" s="3">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="I41" s="3">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="J41" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="K41" s="3">
         <v>6800</v>
@@ -1952,10 +1952,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38900</v>
+        <v>37200</v>
       </c>
       <c r="E43" s="3">
-        <v>32800</v>
+        <v>31400</v>
       </c>
       <c r="F43" s="3">
-        <v>35700</v>
+        <v>34200</v>
       </c>
       <c r="G43" s="3">
-        <v>42200</v>
+        <v>40400</v>
       </c>
       <c r="H43" s="3">
-        <v>35000</v>
+        <v>33500</v>
       </c>
       <c r="I43" s="3">
-        <v>27600</v>
+        <v>26400</v>
       </c>
       <c r="J43" s="3">
-        <v>32900</v>
+        <v>31500</v>
       </c>
       <c r="K43" s="3">
         <v>33900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18700</v>
+        <v>17900</v>
       </c>
       <c r="E44" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="F44" s="3">
-        <v>21600</v>
+        <v>20700</v>
       </c>
       <c r="G44" s="3">
-        <v>38100</v>
+        <v>36400</v>
       </c>
       <c r="H44" s="3">
-        <v>38200</v>
+        <v>36600</v>
       </c>
       <c r="I44" s="3">
-        <v>26100</v>
+        <v>25000</v>
       </c>
       <c r="J44" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="K44" s="3">
         <v>36600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J45" s="3">
         <v>10600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>13700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>16700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>22200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>11100</v>
       </c>
       <c r="K45" s="3">
         <v>9400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>127100</v>
+        <v>121700</v>
       </c>
       <c r="E46" s="3">
-        <v>117600</v>
+        <v>112700</v>
       </c>
       <c r="F46" s="3">
-        <v>110300</v>
+        <v>105700</v>
       </c>
       <c r="G46" s="3">
-        <v>111100</v>
+        <v>106400</v>
       </c>
       <c r="H46" s="3">
-        <v>110300</v>
+        <v>105700</v>
       </c>
       <c r="I46" s="3">
-        <v>98900</v>
+        <v>94800</v>
       </c>
       <c r="J46" s="3">
-        <v>70000</v>
+        <v>67100</v>
       </c>
       <c r="K46" s="3">
         <v>87300</v>
@@ -2177,10 +2177,10 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K47" s="3">
         <v>1900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="E48" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="F48" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H48" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="I48" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J48" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="K48" s="3">
         <v>5100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J49" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="K49" s="3">
         <v>10700</v>
@@ -2375,7 +2375,7 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>143300</v>
+        <v>137200</v>
       </c>
       <c r="E54" s="3">
-        <v>133900</v>
+        <v>128200</v>
       </c>
       <c r="F54" s="3">
-        <v>122600</v>
+        <v>117400</v>
       </c>
       <c r="G54" s="3">
-        <v>123400</v>
+        <v>118200</v>
       </c>
       <c r="H54" s="3">
-        <v>126200</v>
+        <v>120800</v>
       </c>
       <c r="I54" s="3">
-        <v>110400</v>
+        <v>105700</v>
       </c>
       <c r="J54" s="3">
-        <v>85300</v>
+        <v>81700</v>
       </c>
       <c r="K54" s="3">
         <v>105100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F57" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G57" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H57" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="I57" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="J57" s="3">
-        <v>35200</v>
+        <v>33700</v>
       </c>
       <c r="K57" s="3">
         <v>55600</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E58" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F58" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I58" s="3">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="J58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K58" s="3">
         <v>2800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="E59" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="F59" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="G59" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="H59" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="I59" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J59" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K59" s="3">
         <v>6300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19700</v>
+        <v>18900</v>
       </c>
       <c r="E60" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="F60" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="G60" s="3">
-        <v>21500</v>
+        <v>20600</v>
       </c>
       <c r="H60" s="3">
-        <v>26800</v>
+        <v>25600</v>
       </c>
       <c r="I60" s="3">
-        <v>32900</v>
+        <v>31500</v>
       </c>
       <c r="J60" s="3">
-        <v>42200</v>
+        <v>40500</v>
       </c>
       <c r="K60" s="3">
         <v>64600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42700</v>
+        <v>40900</v>
       </c>
       <c r="E61" s="3">
-        <v>41600</v>
+        <v>39800</v>
       </c>
       <c r="F61" s="3">
-        <v>32800</v>
+        <v>31400</v>
       </c>
       <c r="G61" s="3">
-        <v>34900</v>
+        <v>33400</v>
       </c>
       <c r="H61" s="3">
-        <v>37100</v>
+        <v>35500</v>
       </c>
       <c r="I61" s="3">
-        <v>33300</v>
+        <v>31900</v>
       </c>
       <c r="J61" s="3">
-        <v>33000</v>
+        <v>31600</v>
       </c>
       <c r="K61" s="3">
         <v>33500</v>
@@ -2750,7 +2750,7 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
@@ -2762,7 +2762,7 @@
         <v>900</v>
       </c>
       <c r="J62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K62" s="3">
         <v>8600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62600</v>
+        <v>60000</v>
       </c>
       <c r="E66" s="3">
-        <v>60300</v>
+        <v>57700</v>
       </c>
       <c r="F66" s="3">
-        <v>51200</v>
+        <v>49000</v>
       </c>
       <c r="G66" s="3">
-        <v>57200</v>
+        <v>54800</v>
       </c>
       <c r="H66" s="3">
-        <v>64900</v>
+        <v>62100</v>
       </c>
       <c r="I66" s="3">
-        <v>67200</v>
+        <v>64400</v>
       </c>
       <c r="J66" s="3">
-        <v>78100</v>
+        <v>74800</v>
       </c>
       <c r="K66" s="3">
         <v>107100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>249700</v>
+        <v>239100</v>
       </c>
       <c r="E72" s="3">
-        <v>242600</v>
+        <v>232400</v>
       </c>
       <c r="F72" s="3">
-        <v>240400</v>
+        <v>230200</v>
       </c>
       <c r="G72" s="3">
-        <v>235200</v>
+        <v>225200</v>
       </c>
       <c r="H72" s="3">
-        <v>230300</v>
+        <v>220500</v>
       </c>
       <c r="I72" s="3">
-        <v>212500</v>
+        <v>203500</v>
       </c>
       <c r="J72" s="3">
-        <v>197500</v>
+        <v>189100</v>
       </c>
       <c r="K72" s="3">
         <v>193800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80700</v>
+        <v>77200</v>
       </c>
       <c r="E76" s="3">
-        <v>73600</v>
+        <v>70500</v>
       </c>
       <c r="F76" s="3">
-        <v>71400</v>
+        <v>68400</v>
       </c>
       <c r="G76" s="3">
-        <v>66200</v>
+        <v>63400</v>
       </c>
       <c r="H76" s="3">
-        <v>61300</v>
+        <v>58700</v>
       </c>
       <c r="I76" s="3">
-        <v>43200</v>
+        <v>41400</v>
       </c>
       <c r="J76" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="K76" s="3">
         <v>-2000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="E81" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="F81" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G81" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H81" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="I81" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="J81" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K81" s="3">
         <v>127000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F83" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
-        <v>4400</v>
-      </c>
       <c r="I83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>3100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="E89" s="3">
-        <v>26900</v>
+        <v>25800</v>
       </c>
       <c r="F89" s="3">
-        <v>32800</v>
+        <v>31400</v>
       </c>
       <c r="G89" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H89" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="I89" s="3">
-        <v>-31700</v>
+        <v>-30400</v>
       </c>
       <c r="J89" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K89" s="3">
         <v>13500</v>
@@ -3814,7 +3814,7 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
         <v>-500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="F94" s="3">
         <v>-400</v>
       </c>
       <c r="G94" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H94" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I94" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K94" s="3">
         <v>-6100</v>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13700</v>
+        <v>-13200</v>
       </c>
       <c r="E96" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20700</v>
+        <v>-19800</v>
       </c>
       <c r="E100" s="3">
-        <v>-12700</v>
+        <v>-12200</v>
       </c>
       <c r="F100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-7100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H100" s="3">
-        <v>-25200</v>
+        <v>-24200</v>
       </c>
       <c r="I100" s="3">
-        <v>40200</v>
+        <v>38500</v>
       </c>
       <c r="J100" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="K100" s="3">
         <v>-1100</v>
@@ -4213,7 +4213,7 @@
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
         <v>-700</v>
@@ -4252,22 +4252,22 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F102" s="3">
-        <v>23600</v>
+        <v>22600</v>
       </c>
       <c r="G102" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I102" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="J102" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K102" s="3">
         <v>6300</v>
